--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,81 +1,449 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C6A3E-6B60-4766-A071-CEF4855951B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$288</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="252">
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>CHARACTER_MAXIMUM_LENGTH</t>
+  </si>
+  <si>
+    <t>IS_NULLABLE</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>CELL_FIX</t>
+  </si>
+  <si>
+    <t>CELL_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ</t>
+  </si>
   <si>
     <t>SYSTEM_ID</t>
   </si>
   <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SYSTEMID</t>
+  </si>
+  <si>
+    <t>PJ_NO</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>USER_CD</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>SERISE_CD</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>SERISE_NAME</t>
+  </si>
+  <si>
+    <t>BASE_VERSION</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>CUSTOM_VERSION</t>
+  </si>
+  <si>
+    <t>SEKKEI_VERSION</t>
+  </si>
+  <si>
+    <t>YOUKEN_FILE_PATH</t>
+  </si>
+  <si>
+    <t>SEKKEI_FILE_PATH</t>
+  </si>
+  <si>
+    <t>PJ_FILE_PATH</t>
+  </si>
+  <si>
+    <t>EIGYOU_TANTOUSHA_CD</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>EIGYOU_TANTOUSHA_NAME</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>SE_TANTOUSHA_CD</t>
+  </si>
+  <si>
+    <t>9996</t>
+  </si>
+  <si>
+    <t>SE_TANTOUSHA_NAME</t>
+  </si>
+  <si>
+    <t>未定</t>
+  </si>
+  <si>
+    <t>KAIHATSU_TANTOUSHA_CD</t>
+  </si>
+  <si>
+    <t>KAIHATSU_TANTOUSHA_NAME</t>
+  </si>
+  <si>
+    <t>BIKOU</t>
+  </si>
+  <si>
+    <t>自動反映設計書</t>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>SYSTEM DATE</t>
+  </si>
+  <si>
+    <t>CREATE_PC</t>
+  </si>
+  <si>
+    <t>Loc_PC</t>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+  </si>
+  <si>
     <t>UPDATE_DATE</t>
   </si>
   <si>
+    <t>UPDATE_PC</t>
+  </si>
+  <si>
+    <t>DELETE_FLG</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>KOUSHIN_FUKA_FLG</t>
+  </si>
+  <si>
+    <t>KOUSHIN_TANTOUSHA_CD</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>CRUD_KBN</t>
+  </si>
+  <si>
+    <t>COPY_PJ_NO</t>
+  </si>
+  <si>
+    <t>COPY_SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ.SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>AUTO_ID</t>
+  </si>
+  <si>
+    <t>JYUN</t>
+  </si>
+  <si>
+    <t>GAMEN_KBN</t>
+  </si>
+  <si>
+    <t>MAPPING</t>
+  </si>
+  <si>
     <t>GAMEN_ID</t>
   </si>
   <si>
+    <t>B7</t>
+  </si>
+  <si>
     <t>GAMEN_NAME</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>SHEET_NAME</t>
+  </si>
+  <si>
+    <t>BUNRUI</t>
+  </si>
+  <si>
+    <t>GAMEN_SYURUI</t>
+  </si>
+  <si>
+    <t>GAMEN_VERSION</t>
+  </si>
+  <si>
+    <t>YOUKEN_GAIYOU</t>
+  </si>
+  <si>
+    <t>SENI_JYUN</t>
+  </si>
+  <si>
+    <t>UNYOU_CYUUI</t>
+  </si>
+  <si>
+    <t>BIKOU_AOJI</t>
+  </si>
+  <si>
+    <t>UNYOU_CYUUI_AOJI</t>
+  </si>
+  <si>
+    <t>PG_KOUSUU</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>TEST_KOUSUU</t>
+  </si>
+  <si>
+    <t>GAMEN_FILE_PATH</t>
+  </si>
+  <si>
+    <t>OUTPUT_JYUN</t>
+  </si>
+  <si>
+    <t>OUTPUT_PAGE</t>
+  </si>
+  <si>
+    <t>OUTPUT_SIZE</t>
+  </si>
+  <si>
+    <t>OUTPUT_GAMEN</t>
+  </si>
+  <si>
+    <t>OUTPUT_DATA</t>
+  </si>
+  <si>
+    <t>OUTPUT_KENSAKU</t>
+  </si>
+  <si>
+    <t>OUTPUT_PRINT</t>
+  </si>
+  <si>
+    <t>OUTPUT_JYUN_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_PAGE_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_SIZE_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_GAMEN_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_DATA_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_KENSAKU_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_PRINT_AOJI</t>
+  </si>
+  <si>
+    <t>IPO_DENSHU_KBN_CD</t>
+  </si>
+  <si>
+    <t>IPO_MANI_KBN</t>
+  </si>
+  <si>
+    <t>FUYOU_FLG</t>
+  </si>
+  <si>
+    <t>KEYWORD</t>
+  </si>
+  <si>
+    <t>EIKYOU_FLG</t>
+  </si>
+  <si>
+    <t>OUTPUT_FILE_CSV</t>
+  </si>
+  <si>
+    <t>HEADER_CSV</t>
+  </si>
+  <si>
+    <t>MOJI_CD_CSV</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_KB_CSV</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_CSV</t>
+  </si>
+  <si>
+    <t>OUTPUT_FILE_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>HEADER_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>MOJI_CD_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>HANTEI_RANKU</t>
+  </si>
+  <si>
+    <t>HANTEI_RIYOU</t>
+  </si>
+  <si>
+    <t>RANKU_BIKOU</t>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+  </si>
+  <si>
+    <t>LOGIN_USER_NAME</t>
+  </si>
+  <si>
+    <t>BIKOU_TRANSLATE</t>
+  </si>
+  <si>
+    <t>UNYOU_CYUUI_TRANSLATE</t>
+  </si>
+  <si>
+    <t>SAISHIN_SEKKEISGO_FLG</t>
+  </si>
+  <si>
+    <t>SAISHIN_SEKKEISHO_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN_YOUKEN</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN.SEQ</t>
+  </si>
+  <si>
+    <t>SEQ_Y</t>
+  </si>
+  <si>
+    <t>YOUKEN_NO</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>YOUKEN_SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>YOUKEN_KBN</t>
+  </si>
+  <si>
+    <t>YOUKEN_SEQ</t>
   </si>
   <si>
     <t>T_KIHON_PJ_FUNC</t>
   </si>
   <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SEQ</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>SEQ_F</t>
   </si>
   <si>
     <t>AOJI</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>GAMEN_NO</t>
   </si>
   <si>
-    <t>nvarchar</t>
-  </si>
-  <si>
-    <t>YES</t>
+    <t>B</t>
   </si>
   <si>
     <t>BUHIN_CD</t>
@@ -84,43 +452,73 @@
     <t>BUHIN_NAME</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>KASSEI_ADD</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>KASSEI_UPD</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>KASSEI_DEL</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>KASSEI_SAN</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>KASSEI_ALL</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>KASSEI_SONOTA</t>
   </si>
   <si>
     <t>HISSU_CHK</t>
   </si>
   <si>
+    <t>AN</t>
+  </si>
+  <si>
     <t>HENKOU_KBN</t>
   </si>
   <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>SENI_SAKI</t>
   </si>
   <si>
+    <t>BC</t>
+  </si>
+  <si>
     <t>HINT_TEXT</t>
   </si>
   <si>
+    <t>BP</t>
+  </si>
+  <si>
     <t>YOUKEN_LOGIC</t>
   </si>
   <si>
     <t>ROW_NO</t>
   </si>
   <si>
-    <t>smallint</t>
+    <t>T_KIHON_PJ_FUNC.SEQ_F</t>
   </si>
   <si>
     <t>COLOR_GRAY_FLG</t>
@@ -135,210 +533,12 @@
     <t>TORIKESHI</t>
   </si>
   <si>
-    <t>YOUKEN_NO</t>
-  </si>
-  <si>
     <t>YOUKEN_LOGIC_TRANSLATE</t>
   </si>
   <si>
     <t>COLOR_RED_FLG</t>
   </si>
   <si>
-    <t>T_KIHON_PJ_GAMEN</t>
-  </si>
-  <si>
-    <t>JYUN</t>
-  </si>
-  <si>
-    <t>GAMEN_KBN</t>
-  </si>
-  <si>
-    <t>SHEET_NAME</t>
-  </si>
-  <si>
-    <t>BUNRUI</t>
-  </si>
-  <si>
-    <t>GAMEN_SYURUI</t>
-  </si>
-  <si>
-    <t>GAMEN_VERSION</t>
-  </si>
-  <si>
-    <t>YOUKEN_GAIYOU</t>
-  </si>
-  <si>
-    <t>SENI_JYUN</t>
-  </si>
-  <si>
-    <t>BIKOU</t>
-  </si>
-  <si>
-    <t>UNYOU_CYUUI</t>
-  </si>
-  <si>
-    <t>BIKOU_AOJI</t>
-  </si>
-  <si>
-    <t>UNYOU_CYUUI_AOJI</t>
-  </si>
-  <si>
-    <t>PG_KOUSUU</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>TEST_KOUSUU</t>
-  </si>
-  <si>
-    <t>GAMEN_FILE_PATH</t>
-  </si>
-  <si>
-    <t>OUTPUT_JYUN</t>
-  </si>
-  <si>
-    <t>OUTPUT_PAGE</t>
-  </si>
-  <si>
-    <t>OUTPUT_SIZE</t>
-  </si>
-  <si>
-    <t>OUTPUT_GAMEN</t>
-  </si>
-  <si>
-    <t>OUTPUT_DATA</t>
-  </si>
-  <si>
-    <t>OUTPUT_KENSAKU</t>
-  </si>
-  <si>
-    <t>OUTPUT_PRINT</t>
-  </si>
-  <si>
-    <t>OUTPUT_JYUN_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_PAGE_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_SIZE_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_GAMEN_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_DATA_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_KENSAKU_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_PRINT_AOJI</t>
-  </si>
-  <si>
-    <t>IPO_DENSHU_KBN_CD</t>
-  </si>
-  <si>
-    <t>IPO_MANI_KBN</t>
-  </si>
-  <si>
-    <t>FUYOU_FLG</t>
-  </si>
-  <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
-    <t>EIKYOU_FLG</t>
-  </si>
-  <si>
-    <t>OUTPUT_FILE_CSV</t>
-  </si>
-  <si>
-    <t>HEADER_CSV</t>
-  </si>
-  <si>
-    <t>MOJI_CD_CSV</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_KB_CSV</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_CSV</t>
-  </si>
-  <si>
-    <t>OUTPUT_FILE_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>HEADER_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>MOJI_CD_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>CREATE_USER</t>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>CREATE_PC</t>
-  </si>
-  <si>
-    <t>UPDATE_USER</t>
-  </si>
-  <si>
-    <t>UPDATE_PC</t>
-  </si>
-  <si>
-    <t>HANTEI_RANKU</t>
-  </si>
-  <si>
-    <t>HANTEI_RIYOU</t>
-  </si>
-  <si>
-    <t>RANKU_BIKOU</t>
-  </si>
-  <si>
-    <t>LOGIN_ID</t>
-  </si>
-  <si>
-    <t>LOGIN_USER_NAME</t>
-  </si>
-  <si>
-    <t>BIKOU_TRANSLATE</t>
-  </si>
-  <si>
-    <t>UNYOU_CYUUI_TRANSLATE</t>
-  </si>
-  <si>
-    <t>SAISHIN_SEKKEISGO_FLG</t>
-  </si>
-  <si>
-    <t>SAISHIN_SEKKEISHO_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN_YOUKEN</t>
-  </si>
-  <si>
-    <t>SEQ_Y</t>
-  </si>
-  <si>
-    <t>YOUKEN_SYSTEM_ID</t>
-  </si>
-  <si>
-    <t>YOUKEN_KBN</t>
-  </si>
-  <si>
-    <t>YOUKEN_SEQ</t>
-  </si>
-  <si>
     <t>T_KIHON_PJ_IPO</t>
   </si>
   <si>
@@ -348,6 +548,9 @@
     <t>MIDASHI</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>IN_GAMEN_ID</t>
   </si>
   <si>
@@ -360,6 +563,9 @@
     <t>IN_BUHIN_NAME</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>PROCESS</t>
   </si>
   <si>
@@ -369,6 +575,9 @@
     <t>OUT_BUHIN_NAME</t>
   </si>
   <si>
+    <t>BE</t>
+  </si>
+  <si>
     <t>CREATE_YOUKEN_FLG</t>
   </si>
   <si>
@@ -387,39 +596,75 @@
     <t>MOJI_SYU</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>IME</t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>ZENKAKU_MOJI_SU</t>
   </si>
   <si>
+    <t>AD</t>
+  </si>
+  <si>
     <t>HANKAKU_MOJI_SU</t>
   </si>
   <si>
+    <t>AF</t>
+  </si>
+  <si>
     <t>SEISU_KETA</t>
   </si>
   <si>
+    <t>AH</t>
+  </si>
+  <si>
     <t>SYOUSU_KETA</t>
   </si>
   <si>
+    <t>AJ</t>
+  </si>
+  <si>
     <t>HENSYUU</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>JYUUFUKU</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
     <t>DEFAULT_DISP</t>
   </si>
   <si>
     <t>FORMAT</t>
   </si>
   <si>
+    <t>AT</t>
+  </si>
+  <si>
     <t>SANSYOU_SAKI</t>
   </si>
   <si>
     <t>EIKYOU_SAKI</t>
   </si>
   <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
+  </si>
+  <si>
+    <t>SEQ_K_L</t>
+  </si>
+  <si>
     <t>T_KIHON_PJ_KOUMOKU_CSV</t>
   </si>
   <si>
@@ -432,10 +677,16 @@
     <t>MOTO_KOUMOKU</t>
   </si>
   <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-  </si>
-  <si>
-    <t>SEQ_K_L</t>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
+  </si>
+  <si>
+    <t>SEQ_CSV_L</t>
   </si>
   <si>
     <t>T_KIHON_PJ_KOUMOKU_RE</t>
@@ -444,6 +695,9 @@
     <t>SEQ_RE</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>FONT_SIZE</t>
   </si>
   <si>
@@ -453,9 +707,15 @@
     <t>FONT_UNDER</t>
   </si>
   <si>
+    <t>AS</t>
+  </si>
+  <si>
     <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
   </si>
   <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
+  </si>
+  <si>
     <t>SEQ_RE_L</t>
   </si>
   <si>
@@ -471,21 +731,33 @@
     <t>KENGEN_TYPE</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>RIBBON_NAME</t>
   </si>
   <si>
     <t>GAMEN_SENI_SAKI</t>
   </si>
   <si>
+    <t>AC</t>
+  </si>
+  <si>
     <t>DAI_BUNRUI</t>
   </si>
   <si>
     <t>CYU_BUNRUI</t>
   </si>
   <si>
+    <t>AW</t>
+  </si>
+  <si>
     <t>GROUP_NAME</t>
   </si>
   <si>
+    <t>BF</t>
+  </si>
+  <si>
     <t>T_KIHON_PJ_MESSAGE</t>
   </si>
   <si>
@@ -498,6 +770,9 @@
     <t>ALERT_MESSAGE</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>ALERT_SYU</t>
   </si>
   <si>
@@ -511,434 +786,379 @@
   </si>
   <si>
     <t>TEIGI_BASYO</t>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>COLUMN_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>CHARACTER_MAXIMUM_LENGTH</t>
-  </si>
-  <si>
-    <t>IS_NULLABLE</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ</t>
-  </si>
-  <si>
-    <t>PJ_NO</t>
-  </si>
-  <si>
-    <t>USER_CD</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>SERISE_CD</t>
-  </si>
-  <si>
-    <t>SERISE_NAME</t>
-  </si>
-  <si>
-    <t>BASE_VERSION</t>
-  </si>
-  <si>
-    <t>CUSTOM_VERSION</t>
-  </si>
-  <si>
-    <t>SEKKEI_VERSION</t>
-  </si>
-  <si>
-    <t>YOUKEN_FILE_PATH</t>
-  </si>
-  <si>
-    <t>SEKKEI_FILE_PATH</t>
-  </si>
-  <si>
-    <t>PJ_FILE_PATH</t>
-  </si>
-  <si>
-    <t>EIGYOU_TANTOUSHA_CD</t>
-  </si>
-  <si>
-    <t>EIGYOU_TANTOUSHA_NAME</t>
-  </si>
-  <si>
-    <t>SE_TANTOUSHA_CD</t>
-  </si>
-  <si>
-    <t>SE_TANTOUSHA_NAME</t>
-  </si>
-  <si>
-    <t>KAIHATSU_TANTOUSHA_CD</t>
-  </si>
-  <si>
-    <t>KAIHATSU_TANTOUSHA_NAME</t>
-  </si>
-  <si>
-    <t>DELETE_FLG</t>
-  </si>
-  <si>
-    <t>KOUSHIN_FUKA_FLG</t>
-  </si>
-  <si>
-    <t>KOUSHIN_TANTOUSHA_CD</t>
-  </si>
-  <si>
-    <t>CRUD_KBN</t>
-  </si>
-  <si>
-    <t>COPY_PJ_NO</t>
-  </si>
-  <si>
-    <t>COPY_SYSTEM_ID</t>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0168</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLANK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9996</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SYSTEM DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Loc_PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTO_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAPPING</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ.SYSTEM_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN.SEQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC.SEQ_F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
-  </si>
-  <si>
-    <t>SEQ_CSV_L</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CELL_FIX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CELL_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SYSTEMID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動反映設計書</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -946,26 +1166,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1014,7 +1521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1049,7 +1556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1223,596 +1730,589 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="21.5859375" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.8359375" customWidth="1"/>
     <col min="4" max="4" width="33.9140625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.3359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>204</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>-1</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>-1</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>199</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1820,19 +2320,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1840,39 +2340,39 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>192</v>
+        <v>16</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1880,339 +2380,339 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>-1</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>-1</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>-1</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>-1</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2220,19 +2720,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2240,219 +2740,219 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>-1</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2460,19 +2960,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2480,19 +2980,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2500,19 +3000,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2520,19 +3020,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2540,19 +3040,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2560,19 +3060,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2580,59 +3080,59 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2640,39 +3140,39 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2680,119 +3180,119 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72">
         <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2800,19 +3300,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2820,19 +3320,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2840,19 +3340,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2860,299 +3360,299 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>2000</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>2000</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>200</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>-1</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>-1</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3160,239 +3660,239 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D98" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>-1</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C103" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="D103" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3400,39 +3900,39 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F109">
         <v>999999</v>
@@ -3440,399 +3940,399 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H110" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H112" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H113" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H114" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H115" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H116" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>100</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H117" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H118" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>100</v>
       </c>
       <c r="E119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H119" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120">
         <v>100</v>
       </c>
       <c r="E120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H120" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>-1</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B124" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D126" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3840,239 +4340,239 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130">
         <v>170</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H130" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131">
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133">
         <v>170</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B138" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D140" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F141">
         <v>999999</v>
@@ -4080,39 +4580,39 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142">
         <v>100</v>
       </c>
       <c r="E142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H142" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143">
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143">
         <v>999999</v>
@@ -4120,59 +4620,59 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144">
         <v>100</v>
       </c>
       <c r="E144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B145" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D145">
         <v>-1</v>
       </c>
       <c r="E145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H145" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146">
         <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F146">
         <v>999999</v>
@@ -4180,179 +4680,179 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147">
         <v>100</v>
       </c>
       <c r="E147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148">
         <v>100</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
-        <v>114</v>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D154" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4360,39 +4860,39 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H156" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D157">
         <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F157">
         <v>999999</v>
@@ -4400,539 +4900,542 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D158">
         <v>100</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H158" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D159" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>205</v>
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160">
         <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H160" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D162">
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D163" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H163" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H164" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H165" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H166" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H167" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H168" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B169" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169">
         <v>100</v>
       </c>
       <c r="E169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H169" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B170" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D170">
         <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H170" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D171">
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H171" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D172">
         <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H172" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D173">
         <v>100</v>
       </c>
       <c r="E173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H173" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D174">
         <v>-1</v>
       </c>
       <c r="E174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D175" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F176" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D177" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D178" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>134</v>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180" t="s">
+        <v>65</v>
+      </c>
+      <c r="C180" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181" t="s">
+        <v>66</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>134</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4</v>
-      </c>
-      <c r="E180" t="s">
-        <v>7</v>
-      </c>
-      <c r="F180" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>247</v>
-      </c>
-      <c r="B181" t="s">
-        <v>115</v>
-      </c>
-      <c r="C181" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" t="s">
-        <v>4</v>
-      </c>
-      <c r="E181" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183" t="s">
         <v>135</v>
       </c>
-      <c r="C182" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>134</v>
-      </c>
-      <c r="B183" t="s">
-        <v>11</v>
-      </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D183" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D184" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4940,199 +5443,199 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D185">
         <v>170</v>
       </c>
       <c r="E185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H185" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D186">
         <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B188" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188">
         <v>170</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F188" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D189" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D190" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D192" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>211</v>
+      </c>
+      <c r="B193" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>246</v>
-      </c>
-      <c r="B193" t="s">
-        <v>248</v>
-      </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D193" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5140,39 +5643,39 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195">
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H195" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196">
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F196">
         <v>999999</v>
@@ -5180,299 +5683,299 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197">
         <v>100</v>
       </c>
       <c r="E197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H197" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B198" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198">
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H198" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199">
         <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D200">
         <v>100</v>
       </c>
       <c r="E200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H200" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D201">
         <v>100</v>
       </c>
       <c r="E201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H201" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D202">
         <v>-1</v>
       </c>
       <c r="E202" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F203" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D204" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D205" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D207" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>216</v>
+      </c>
+      <c r="B208" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>244</v>
-      </c>
-      <c r="B208" t="s">
-        <v>131</v>
-      </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D208" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D209" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D210" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D211" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5480,199 +5983,199 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D212">
         <v>170</v>
       </c>
       <c r="E212" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H212" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D213">
         <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H213" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F214" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D215">
         <v>170</v>
       </c>
       <c r="E215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F215" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D216" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D217" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D219" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D220" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D221" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -5680,39 +6183,39 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222" t="s">
         <v>136</v>
       </c>
-      <c r="B222" t="s">
-        <v>13</v>
-      </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D222">
         <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H222" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D223">
         <v>6</v>
       </c>
       <c r="E223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F223">
         <v>999999</v>
@@ -5720,499 +6223,499 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D224">
         <v>100</v>
       </c>
       <c r="E224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H224" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B225" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D225" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B226" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D226">
         <v>20</v>
       </c>
       <c r="E226" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H226" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B227" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D227">
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H227" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B228" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D228" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H228" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B229" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D229" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H229" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B230" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H230" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="C231" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E231" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H231" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B232" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D232">
         <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H232" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B233" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H233" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B234" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D234">
         <v>2</v>
       </c>
       <c r="E234" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H234" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B235" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D235">
         <v>50</v>
       </c>
       <c r="E235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H235" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D236">
         <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H236" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B237" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D237">
         <v>100</v>
       </c>
       <c r="E237" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H237" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B238" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D238">
         <v>100</v>
       </c>
       <c r="E238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H238" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B239" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C239" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D239">
         <v>-1</v>
       </c>
       <c r="E239" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F239" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F240" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C241" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D241" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B242" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D242" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B243" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D244" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F244" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B245" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D245" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F245" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D246" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F246" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D247" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B248" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D248" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6220,199 +6723,199 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D249">
         <v>170</v>
       </c>
       <c r="E249" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H249" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D250">
         <v>10</v>
       </c>
       <c r="E250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H250" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C251" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F251" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B252" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D252">
         <v>170</v>
       </c>
       <c r="E252" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F252" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B253" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="C253" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D253" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C254" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D254" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B255" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D256" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F256" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B257" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D257" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F257" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C258" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D258" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -6420,299 +6923,299 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D259">
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H259" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B260" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D260">
         <v>30</v>
       </c>
       <c r="E260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H260" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B261" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D261">
         <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H261" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B262" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D262">
         <v>30</v>
       </c>
       <c r="E262" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H262" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B263" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D263">
         <v>30</v>
       </c>
       <c r="E263" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H263" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B264" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D264">
         <v>20</v>
       </c>
       <c r="E264" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H264" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B265" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D265">
         <v>20</v>
       </c>
       <c r="E265" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H265" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B266" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="C266" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D266">
         <v>20</v>
       </c>
       <c r="E266" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H266" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B267" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C267" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D267" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E267" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F267" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C268" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D268" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B269" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D269" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B270" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D270" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F270" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D271" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F271" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B272" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D272" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C273" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D273" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -6720,219 +7223,219 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B274" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D274">
         <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H274" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B275" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="C275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D275">
         <v>200</v>
       </c>
       <c r="E275" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H275" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B276" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="C276" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D276">
         <v>15</v>
       </c>
       <c r="E276" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H276" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B277" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C277" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D277">
         <v>10</v>
       </c>
       <c r="E277" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F277" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B278" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D278">
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H278" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D279" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E279" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F279" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B280" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D280" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B281" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F281" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D282" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F282" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B283" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D283" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F283" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D284" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6940,87 +7443,89 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B285" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D285">
         <v>8</v>
       </c>
       <c r="E285" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H285" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B286" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D286">
         <v>200</v>
       </c>
       <c r="E286" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H286" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B287" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C287" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D287" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E287" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F287" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C288" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D288" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E288" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="1"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H288" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E266D55D-E06A-44C8-AFC0-A28AF763DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11140"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="285">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -518,447 +524,428 @@
     <t>ROW_NO</t>
   </si>
   <si>
+    <t>COLOR_GRAY_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC_LOGIC</t>
+  </si>
+  <si>
+    <t>TORIKESHI</t>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC_TRANSLATE</t>
+  </si>
+  <si>
+    <t>COLOR_RED_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+  </si>
+  <si>
+    <t>MIDASHI</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>IN_GAMEN_ID</t>
+  </si>
+  <si>
+    <t>IN_GAMEN_NAME</t>
+  </si>
+  <si>
+    <t>IN_BUHIN_CD</t>
+  </si>
+  <si>
+    <t>IN_BUHIN_NAME</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>OUT_BUHIN_CD</t>
+  </si>
+  <si>
+    <t>OUT_BUHIN_NAME</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CREATE_YOUKEN_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU</t>
+  </si>
+  <si>
+    <t>SEQ_K</t>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_CD</t>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_NAME</t>
+  </si>
+  <si>
+    <t>MOJI_SYU</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>IME</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ZENKAKU_MOJI_SU</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>HANKAKU_MOJI_SU</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>SEISU_KETA</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>SYOUSU_KETA</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>HENSYUU</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>JYUUFUKU</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>DEFAULT_DISP</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>SANSYOU_SAKI</t>
+  </si>
+  <si>
+    <t>EIKYOU_SAKI</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
+  </si>
+  <si>
+    <t>SEQ_K_L</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+  </si>
+  <si>
+    <t>MOTO_GAMEN</t>
+  </si>
+  <si>
+    <t>MOTO_KOUMOKU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>FONT_SIZE</t>
+  </si>
+  <si>
+    <t>FONT_BOLD</t>
+  </si>
+  <si>
+    <t>FONT_UNDER</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+  </si>
+  <si>
+    <t>ICON_NAME</t>
+  </si>
+  <si>
+    <t>KENGEN_TYPE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>RIBBON_NAME</t>
+  </si>
+  <si>
+    <t>GAMEN_SENI_SAKI</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DAI_BUNRUI</t>
+  </si>
+  <si>
+    <t>CYU_BUNRUI</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MESSAGE</t>
+  </si>
+  <si>
+    <t>MESSAGE_CD</t>
+  </si>
+  <si>
+    <t>ALERT_MESSAGE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ALERT_SYU</t>
+  </si>
+  <si>
+    <t>ALERT_DEFAULT</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_TAB</t>
+  </si>
+  <si>
+    <t>TEIGI_BASYO</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_F_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROW_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>T_KIHON_PJ_FUNC.SEQ_F</t>
-  </si>
-  <si>
-    <t>COLOR_GRAY_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC_LOGIC</t>
-  </si>
-  <si>
-    <t>SEQ_F_L</t>
-  </si>
-  <si>
-    <t>TORIKESHI</t>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC_TRANSLATE</t>
-  </si>
-  <si>
-    <t>COLOR_RED_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_CSV_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_MS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_TAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_ICHIRAN</t>
+  </si>
+  <si>
+    <t>DENSHU_KBN</t>
+  </si>
+  <si>
+    <t>HYOUJI_KBN</t>
+  </si>
+  <si>
+    <t>HISSU</t>
+  </si>
+  <si>
+    <t>TIME_STAMP</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_ICHIRAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_M</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>T_KIHON_PJ_IPO</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SEQ_IPO</t>
-  </si>
-  <si>
-    <t>MIDASHI</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>IN_GAMEN_ID</t>
-  </si>
-  <si>
-    <t>IN_GAMEN_NAME</t>
-  </si>
-  <si>
-    <t>IN_BUHIN_CD</t>
-  </si>
-  <si>
-    <t>IN_BUHIN_NAME</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>OUT_BUHIN_CD</t>
-  </si>
-  <si>
-    <t>OUT_BUHIN_NAME</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>CREATE_YOUKEN_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU</t>
-  </si>
-  <si>
-    <t>SEQ_K</t>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_CD</t>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_NAME</t>
-  </si>
-  <si>
-    <t>MOJI_SYU</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>IME</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>ZENKAKU_MOJI_SU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>AD</t>
-  </si>
-  <si>
-    <t>HANKAKU_MOJI_SU</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>AF</t>
-  </si>
-  <si>
-    <t>SEISU_KETA</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>SYOUSU_KETA</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>HENSYUU</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>JYUUFUKU</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>DEFAULT_DISP</t>
-  </si>
-  <si>
-    <t>FORMAT</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>SANSYOU_SAKI</t>
-  </si>
-  <si>
-    <t>EIKYOU_SAKI</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
-  </si>
-  <si>
-    <t>SEQ_K_L</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-  </si>
-  <si>
-    <t>SEQ_CSV</t>
-  </si>
-  <si>
-    <t>MOTO_GAMEN</t>
-  </si>
-  <si>
-    <t>MOTO_KOUMOKU</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
-  </si>
-  <si>
-    <t>SEQ_CSV_L</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-  </si>
-  <si>
-    <t>SEQ_RE</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>FONT_SIZE</t>
-  </si>
-  <si>
-    <t>FONT_BOLD</t>
-  </si>
-  <si>
-    <t>FONT_UNDER</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
-  </si>
-  <si>
-    <t>SEQ_RE_L</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-  </si>
-  <si>
-    <t>SEQ_M</t>
-  </si>
-  <si>
-    <t>ICON_NAME</t>
-  </si>
-  <si>
-    <t>KENGEN_TYPE</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>RIBBON_NAME</t>
-  </si>
-  <si>
-    <t>GAMEN_SENI_SAKI</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>DAI_BUNRUI</t>
-  </si>
-  <si>
-    <t>CYU_BUNRUI</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MESSAGE</t>
-  </si>
-  <si>
-    <t>SEQ_MS</t>
-  </si>
-  <si>
-    <t>MESSAGE_CD</t>
-  </si>
-  <si>
-    <t>ALERT_MESSAGE</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ALERT_SYU</t>
-  </si>
-  <si>
-    <t>ALERT_DEFAULT</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_TAB</t>
-  </si>
-  <si>
-    <t>SEQ_T</t>
-  </si>
-  <si>
-    <t>TEIGI_BASYO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+  </si>
+  <si>
+    <t>SEQ_H</t>
+  </si>
+  <si>
+    <t>TEIGI_KBN</t>
+  </si>
+  <si>
+    <t>HYOUJI_JYUN</t>
+  </si>
+  <si>
+    <t>SHITEI_NASHI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,194 +958,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1166,313 +967,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1730,26 +1245,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H288"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5859375" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.8359375" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.9140625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="13.3359375" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1778,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1798,8 +1313,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1818,8 +1333,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -1838,8 +1353,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1858,8 +1373,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1878,8 +1393,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -1898,8 +1413,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -1918,8 +1433,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1938,8 +1453,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1958,8 +1473,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1978,8 +1493,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -1998,8 +1513,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -2018,8 +1533,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -2038,8 +1553,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
@@ -2058,8 +1573,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -2079,7 +1594,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -2099,7 +1614,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -2119,7 +1634,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -2139,7 +1654,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
@@ -2159,7 +1674,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -2179,7 +1694,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
@@ -2199,7 +1714,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -2219,7 +1734,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
@@ -2239,7 +1754,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -2259,7 +1774,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
@@ -2279,7 +1794,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
@@ -2299,7 +1814,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
@@ -2319,7 +1834,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
@@ -2339,7 +1854,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -2359,7 +1874,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
@@ -2379,7 +1894,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
@@ -2398,8 +1913,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
@@ -2418,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -2438,8 +1953,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B35" t="s">
@@ -2458,8 +1973,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B36" t="s">
@@ -2478,8 +1993,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B37" t="s">
@@ -2499,7 +2014,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B38" t="s">
@@ -2519,7 +2034,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B39" t="s">
@@ -2539,7 +2054,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B40" t="s">
@@ -2558,8 +2073,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -2578,8 +2093,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" t="s">
@@ -2599,7 +2114,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B43" t="s">
@@ -2618,8 +2133,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B44" t="s">
@@ -2638,8 +2153,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B45" t="s">
@@ -2658,8 +2173,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B46" t="s">
@@ -2678,8 +2193,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47" t="s">
@@ -2698,8 +2213,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B48" t="s">
@@ -2719,7 +2234,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B49" t="s">
@@ -2739,7 +2254,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B50" t="s">
@@ -2759,7 +2274,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B51" t="s">
@@ -2779,7 +2294,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B52" t="s">
@@ -2799,7 +2314,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B53" t="s">
@@ -2819,7 +2334,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B54" t="s">
@@ -2839,7 +2354,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
@@ -2859,7 +2374,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
@@ -2879,7 +2394,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
@@ -2899,7 +2414,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B58" t="s">
@@ -2919,7 +2434,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
@@ -2939,7 +2454,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
@@ -2959,7 +2474,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
@@ -2979,7 +2494,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
@@ -2999,7 +2514,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
@@ -3019,7 +2534,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -3039,7 +2554,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -3059,7 +2574,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B66" t="s">
@@ -3079,7 +2594,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
@@ -3099,7 +2614,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B68" t="s">
@@ -3119,7 +2634,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B69" t="s">
@@ -3139,7 +2654,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B70" t="s">
@@ -3159,7 +2674,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B71" t="s">
@@ -3179,7 +2694,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B72" t="s">
@@ -3199,7 +2714,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B73" t="s">
@@ -3219,7 +2734,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B74" t="s">
@@ -3239,7 +2754,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B75" t="s">
@@ -3259,7 +2774,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B76" t="s">
@@ -3279,7 +2794,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B77" t="s">
@@ -3299,7 +2814,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B78" t="s">
@@ -3319,7 +2834,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B79" t="s">
@@ -3339,7 +2854,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B80" t="s">
@@ -3359,7 +2874,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B81" t="s">
@@ -3379,7 +2894,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B82" t="s">
@@ -3399,7 +2914,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B83" t="s">
@@ -3419,7 +2934,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B84" t="s">
@@ -3439,7 +2954,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B85" t="s">
@@ -3459,7 +2974,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B86" t="s">
@@ -3479,7 +2994,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B87" t="s">
@@ -3499,7 +3014,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B88" t="s">
@@ -3519,7 +3034,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B89" t="s">
@@ -3539,7 +3054,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B90" t="s">
@@ -3559,7 +3074,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B91" t="s">
@@ -3579,7 +3094,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B92" t="s">
@@ -3599,7 +3114,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B93" t="s">
@@ -3619,7 +3134,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B94" t="s">
@@ -3639,7 +3154,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B95" t="s">
@@ -3659,7 +3174,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B96" t="s">
@@ -3678,8 +3193,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
+    <row r="97" spans="1:8">
+      <c r="A97" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B97" t="s">
@@ -3698,8 +3213,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
+    <row r="98" spans="1:8">
+      <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B98" t="s">
@@ -3718,8 +3233,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
+    <row r="99" spans="1:8">
+      <c r="A99" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B99" t="s">
@@ -3738,8 +3253,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
+    <row r="100" spans="1:8">
+      <c r="A100" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B100" t="s">
@@ -3758,8 +3273,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
+    <row r="101" spans="1:8">
+      <c r="A101" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B101" t="s">
@@ -3778,8 +3293,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
+    <row r="102" spans="1:8">
+      <c r="A102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B102" t="s">
@@ -3798,8 +3313,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B103" t="s">
@@ -3818,9 +3333,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>133</v>
+    <row r="104" spans="1:8">
+      <c r="A104" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
@@ -3838,8 +3353,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
+    <row r="105" spans="1:8">
+      <c r="A105" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B105" t="s">
@@ -3858,12 +3373,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
+    <row r="106" spans="1:8">
+      <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C106" t="s">
         <v>66</v>
@@ -3878,8 +3393,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
+    <row r="107" spans="1:8">
+      <c r="A107" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B107" t="s">
@@ -3899,7 +3414,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B108" t="s">
@@ -3918,8 +3433,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
+    <row r="109" spans="1:8">
+      <c r="A109" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B109" t="s">
@@ -3939,7 +3454,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B110" t="s">
@@ -3959,7 +3474,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B111" t="s">
@@ -3979,7 +3494,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B112" t="s">
@@ -3999,7 +3514,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B113" t="s">
@@ -4019,7 +3534,7 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B114" t="s">
@@ -4039,7 +3554,7 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B115" t="s">
@@ -4059,7 +3574,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B116" t="s">
@@ -4079,7 +3594,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B117" t="s">
@@ -4099,7 +3614,7 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B118" t="s">
@@ -4119,7 +3634,7 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B119" t="s">
@@ -4139,7 +3654,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B120" t="s">
@@ -4158,8 +3673,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
+    <row r="121" spans="1:8">
+      <c r="A121" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B121" t="s">
@@ -4178,12 +3693,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
         <v>24</v>
@@ -4195,15 +3710,15 @@
         <v>16</v>
       </c>
       <c r="F122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>133</v>
-      </c>
-      <c r="B123" t="s">
-        <v>163</v>
       </c>
       <c r="C123" t="s">
         <v>56</v>
@@ -4218,9 +3733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>164</v>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
@@ -4238,9 +3753,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>164</v>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B125" t="s">
         <v>65</v>
@@ -4258,9 +3773,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>164</v>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B126" t="s">
         <v>134</v>
@@ -4275,15 +3790,15 @@
         <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>164</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C127" t="s">
         <v>66</v>
@@ -4298,9 +3813,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>164</v>
+    <row r="128" spans="1:8">
+      <c r="A128" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B128" t="s">
         <v>135</v>
@@ -4318,12 +3833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
+    <row r="129" spans="1:8">
+      <c r="A129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" t="s">
         <v>164</v>
-      </c>
-      <c r="B129" t="s">
-        <v>166</v>
       </c>
       <c r="C129" t="s">
         <v>56</v>
@@ -4339,8 +3854,8 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>164</v>
+      <c r="A130" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B130" t="s">
         <v>160</v>
@@ -4359,8 +3874,8 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>164</v>
+      <c r="A131" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B131" t="s">
         <v>128</v>
@@ -4378,9 +3893,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
-        <v>164</v>
+    <row r="132" spans="1:8">
+      <c r="A132" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B132" t="s">
         <v>161</v>
@@ -4398,12 +3913,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
-        <v>164</v>
+    <row r="133" spans="1:8">
+      <c r="A133" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
@@ -4418,12 +3933,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>164</v>
+    <row r="134" spans="1:8">
+      <c r="A134" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C134" t="s">
         <v>56</v>
@@ -4438,12 +3953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>164</v>
+    <row r="135" spans="1:8">
+      <c r="A135" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C135" t="s">
         <v>56</v>
@@ -4458,9 +3973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>169</v>
+    <row r="136" spans="1:8">
+      <c r="A136" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
@@ -4478,9 +3993,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>169</v>
+    <row r="137" spans="1:8">
+      <c r="A137" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B137" t="s">
         <v>65</v>
@@ -4498,12 +4013,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>169</v>
+    <row r="138" spans="1:8">
+      <c r="A138" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
         <v>66</v>
@@ -4518,12 +4033,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>169</v>
+    <row r="139" spans="1:8">
+      <c r="A139" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C139" t="s">
         <v>56</v>
@@ -4535,12 +4050,12 @@
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B140" t="s">
         <v>135</v>
@@ -4558,12 +4073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>169</v>
+    <row r="141" spans="1:8">
+      <c r="A141" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
@@ -4579,11 +4094,11 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>169</v>
+      <c r="A142" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
@@ -4598,12 +4113,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>169</v>
+    <row r="143" spans="1:8">
+      <c r="A143" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -4619,11 +4134,11 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>169</v>
+      <c r="A144" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
@@ -4635,15 +4150,15 @@
         <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>169</v>
+      <c r="A145" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -4658,12 +4173,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>169</v>
+    <row r="146" spans="1:8">
+      <c r="A146" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -4679,11 +4194,11 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>169</v>
+      <c r="A147" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -4695,12 +4210,12 @@
         <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B148" t="s">
         <v>43</v>
@@ -4718,9 +4233,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
-        <v>169</v>
+    <row r="149" spans="1:8">
+      <c r="A149" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B149" t="s">
         <v>161</v>
@@ -4738,12 +4253,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" t="s">
-        <v>169</v>
+    <row r="150" spans="1:8">
+      <c r="A150" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" t="s">
         <v>56</v>
@@ -4758,12 +4273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" t="s">
-        <v>169</v>
+    <row r="151" spans="1:8">
+      <c r="A151" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
         <v>56</v>
@@ -4778,9 +4293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
@@ -4798,9 +4313,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" t="s">
-        <v>183</v>
+    <row r="153" spans="1:8">
+      <c r="A153" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B153" t="s">
         <v>65</v>
@@ -4818,12 +4333,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
-        <v>183</v>
+    <row r="154" spans="1:8">
+      <c r="A154" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
         <v>66</v>
@@ -4838,9 +4353,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
-        <v>183</v>
+    <row r="155" spans="1:8">
+      <c r="A155" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B155" t="s">
         <v>135</v>
@@ -4859,8 +4374,8 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>183</v>
+      <c r="A156" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B156" t="s">
         <v>136</v>
@@ -4878,9 +4393,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
-        <v>183</v>
+    <row r="157" spans="1:8">
+      <c r="A157" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B157" t="s">
         <v>138</v>
@@ -4899,8 +4414,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>183</v>
+      <c r="A158" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B158" t="s">
         <v>139</v>
@@ -4919,11 +4434,11 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>183</v>
+      <c r="A159" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C159" t="s">
         <v>66</v>
@@ -4942,11 +4457,11 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" t="s">
+      <c r="A160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" t="s">
         <v>183</v>
-      </c>
-      <c r="B160" t="s">
-        <v>186</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
@@ -4962,11 +4477,11 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>183</v>
+      <c r="A161" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
@@ -4978,15 +4493,15 @@
         <v>16</v>
       </c>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>183</v>
+      <c r="A162" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B162" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -4998,15 +4513,15 @@
         <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>183</v>
+      <c r="A163" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C163" t="s">
         <v>66</v>
@@ -5018,15 +4533,15 @@
         <v>16</v>
       </c>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>183</v>
+      <c r="A164" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C164" t="s">
         <v>66</v>
@@ -5038,15 +4553,15 @@
         <v>16</v>
       </c>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>183</v>
+      <c r="A165" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B165" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C165" t="s">
         <v>24</v>
@@ -5058,15 +4573,15 @@
         <v>16</v>
       </c>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>183</v>
+      <c r="A166" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C166" t="s">
         <v>24</v>
@@ -5078,15 +4593,15 @@
         <v>16</v>
       </c>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>183</v>
+      <c r="A167" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
@@ -5098,15 +4613,15 @@
         <v>16</v>
       </c>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>183</v>
+      <c r="A168" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
@@ -5118,15 +4633,15 @@
         <v>16</v>
       </c>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>183</v>
+      <c r="A169" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C169" t="s">
         <v>15</v>
@@ -5142,11 +4657,11 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>183</v>
+      <c r="A170" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -5158,12 +4673,12 @@
         <v>16</v>
       </c>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>183</v>
+      <c r="A171" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B171" t="s">
         <v>154</v>
@@ -5182,11 +4697,11 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>183</v>
+      <c r="A172" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -5202,8 +4717,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>183</v>
+      <c r="A173" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B173" t="s">
         <v>158</v>
@@ -5221,9 +4736,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" t="s">
-        <v>183</v>
+    <row r="174" spans="1:8">
+      <c r="A174" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B174" t="s">
         <v>160</v>
@@ -5241,12 +4756,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" t="s">
-        <v>183</v>
+    <row r="175" spans="1:8">
+      <c r="A175" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
         <v>56</v>
@@ -5261,9 +4776,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" t="s">
-        <v>183</v>
+    <row r="176" spans="1:8">
+      <c r="A176" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B176" t="s">
         <v>161</v>
@@ -5281,12 +4796,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" t="s">
-        <v>183</v>
+    <row r="177" spans="1:8">
+      <c r="A177" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C177" t="s">
         <v>56</v>
@@ -5301,12 +4816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" t="s">
-        <v>183</v>
+    <row r="178" spans="1:8">
+      <c r="A178" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
         <v>56</v>
@@ -5321,9 +4836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B179" t="s">
         <v>9</v>
@@ -5341,9 +4856,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" t="s">
-        <v>208</v>
+    <row r="180" spans="1:8">
+      <c r="A180" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B180" t="s">
         <v>65</v>
@@ -5361,12 +4876,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" t="s">
-        <v>208</v>
+    <row r="181" spans="1:8">
+      <c r="A181" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>66</v>
@@ -5378,15 +4893,15 @@
         <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C182" t="s">
         <v>66</v>
@@ -5401,9 +4916,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" t="s">
-        <v>208</v>
+    <row r="183" spans="1:8">
+      <c r="A183" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B183" t="s">
         <v>135</v>
@@ -5421,12 +4936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" t="s">
-        <v>208</v>
+    <row r="184" spans="1:8">
+      <c r="A184" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C184" t="s">
         <v>56</v>
@@ -5442,8 +4957,8 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>208</v>
+      <c r="A185" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B185" t="s">
         <v>160</v>
@@ -5462,8 +4977,8 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>208</v>
+      <c r="A186" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B186" t="s">
         <v>128</v>
@@ -5481,9 +4996,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
-      <c r="A187" t="s">
-        <v>208</v>
+    <row r="187" spans="1:8">
+      <c r="A187" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B187" t="s">
         <v>161</v>
@@ -5501,12 +5016,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" t="s">
-        <v>208</v>
+    <row r="188" spans="1:8">
+      <c r="A188" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
@@ -5521,12 +5036,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" t="s">
-        <v>208</v>
+    <row r="189" spans="1:8">
+      <c r="A189" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C189" t="s">
         <v>56</v>
@@ -5541,12 +5056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
-      <c r="A190" t="s">
-        <v>208</v>
+    <row r="190" spans="1:8">
+      <c r="A190" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C190" t="s">
         <v>56</v>
@@ -5561,9 +5076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
-      <c r="A191" t="s">
-        <v>211</v>
+    <row r="191" spans="1:8">
+      <c r="A191" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
@@ -5581,9 +5096,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="A192" t="s">
-        <v>211</v>
+    <row r="192" spans="1:8">
+      <c r="A192" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B192" t="s">
         <v>65</v>
@@ -5601,12 +5116,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="A193" t="s">
-        <v>211</v>
+    <row r="193" spans="1:8">
+      <c r="A193" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C193" t="s">
         <v>66</v>
@@ -5621,9 +5136,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
-      <c r="A194" t="s">
-        <v>211</v>
+    <row r="194" spans="1:8">
+      <c r="A194" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B194" t="s">
         <v>135</v>
@@ -5642,8 +5157,8 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>211</v>
+      <c r="A195" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B195" t="s">
         <v>136</v>
@@ -5661,9 +5176,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="A196" t="s">
-        <v>211</v>
+    <row r="196" spans="1:8">
+      <c r="A196" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B196" t="s">
         <v>138</v>
@@ -5682,8 +5197,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>211</v>
+      <c r="A197" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B197" t="s">
         <v>139</v>
@@ -5702,11 +5217,11 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>211</v>
+      <c r="A198" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
@@ -5722,8 +5237,8 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>211</v>
+      <c r="A199" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B199" t="s">
         <v>154</v>
@@ -5742,11 +5257,11 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>211</v>
+      <c r="A200" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C200" t="s">
         <v>15</v>
@@ -5758,15 +5273,15 @@
         <v>16</v>
       </c>
       <c r="H200" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>211</v>
+      <c r="A201" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C201" t="s">
         <v>15</v>
@@ -5778,12 +5293,12 @@
         <v>16</v>
       </c>
       <c r="H201" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B202" t="s">
         <v>160</v>
@@ -5801,9 +5316,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" t="s">
-        <v>211</v>
+    <row r="203" spans="1:8">
+      <c r="A203" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B203" t="s">
         <v>161</v>
@@ -5821,12 +5336,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" t="s">
-        <v>211</v>
+    <row r="204" spans="1:8">
+      <c r="A204" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C204" t="s">
         <v>56</v>
@@ -5841,12 +5356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" t="s">
-        <v>211</v>
+    <row r="205" spans="1:8">
+      <c r="A205" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C205" t="s">
         <v>56</v>
@@ -5861,9 +5376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" t="s">
-        <v>216</v>
+    <row r="206" spans="1:8">
+      <c r="A206" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
@@ -5881,9 +5396,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" t="s">
-        <v>216</v>
+    <row r="207" spans="1:8">
+      <c r="A207" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B207" t="s">
         <v>65</v>
@@ -5901,12 +5416,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" t="s">
-        <v>216</v>
+    <row r="208" spans="1:8">
+      <c r="A208" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C208" t="s">
         <v>66</v>
@@ -5918,15 +5433,15 @@
         <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" t="s">
-        <v>216</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="C209" t="s">
         <v>66</v>
@@ -5941,9 +5456,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" t="s">
-        <v>216</v>
+    <row r="210" spans="1:8">
+      <c r="A210" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B210" t="s">
         <v>135</v>
@@ -5961,12 +5476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="A211" t="s">
-        <v>216</v>
+    <row r="211" spans="1:8">
+      <c r="A211" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C211" t="s">
         <v>56</v>
@@ -5982,8 +5497,8 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>216</v>
+      <c r="A212" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B212" t="s">
         <v>160</v>
@@ -6002,8 +5517,8 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>216</v>
+      <c r="A213" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>128</v>
@@ -6021,9 +5536,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" t="s">
-        <v>216</v>
+    <row r="214" spans="1:8">
+      <c r="A214" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>161</v>
@@ -6041,12 +5556,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" t="s">
-        <v>216</v>
+    <row r="215" spans="1:8">
+      <c r="A215" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
@@ -6061,12 +5576,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" t="s">
-        <v>216</v>
+    <row r="216" spans="1:8">
+      <c r="A216" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B216" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C216" t="s">
         <v>56</v>
@@ -6081,12 +5596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" t="s">
-        <v>216</v>
+    <row r="217" spans="1:8">
+      <c r="A217" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C217" t="s">
         <v>56</v>
@@ -6101,9 +5616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" t="s">
-        <v>219</v>
+    <row r="218" spans="1:8">
+      <c r="A218" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B218" t="s">
         <v>9</v>
@@ -6121,9 +5636,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
-      <c r="A219" t="s">
-        <v>219</v>
+    <row r="219" spans="1:8">
+      <c r="A219" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B219" t="s">
         <v>65</v>
@@ -6141,12 +5656,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" t="s">
-        <v>219</v>
+    <row r="220" spans="1:8">
+      <c r="A220" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C220" t="s">
         <v>66</v>
@@ -6161,9 +5676,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" t="s">
-        <v>219</v>
+    <row r="221" spans="1:8">
+      <c r="A221" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B221" t="s">
         <v>135</v>
@@ -6182,8 +5697,8 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" t="s">
-        <v>219</v>
+      <c r="A222" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B222" t="s">
         <v>136</v>
@@ -6201,9 +5716,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
-      <c r="A223" t="s">
-        <v>219</v>
+    <row r="223" spans="1:8">
+      <c r="A223" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B223" t="s">
         <v>138</v>
@@ -6222,8 +5737,8 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>219</v>
+      <c r="A224" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B224" t="s">
         <v>139</v>
@@ -6241,12 +5756,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="A225" t="s">
-        <v>219</v>
+    <row r="225" spans="1:8">
+      <c r="A225" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C225" t="s">
         <v>66</v>
@@ -6262,11 +5777,11 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>219</v>
+      <c r="A226" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B226" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C226" t="s">
         <v>15</v>
@@ -6282,11 +5797,11 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>219</v>
+      <c r="A227" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B227" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
@@ -6298,15 +5813,15 @@
         <v>16</v>
       </c>
       <c r="H227" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>219</v>
+      <c r="A228" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B228" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C228" t="s">
         <v>66</v>
@@ -6322,11 +5837,11 @@
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>219</v>
+      <c r="A229" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B229" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C229" t="s">
         <v>66</v>
@@ -6338,15 +5853,15 @@
         <v>16</v>
       </c>
       <c r="H229" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>219</v>
+      <c r="A230" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B230" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C230" t="s">
         <v>24</v>
@@ -6358,15 +5873,15 @@
         <v>16</v>
       </c>
       <c r="H230" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>219</v>
+      <c r="A231" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C231" t="s">
         <v>24</v>
@@ -6378,15 +5893,15 @@
         <v>16</v>
       </c>
       <c r="H231" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>219</v>
+      <c r="A232" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C232" t="s">
         <v>15</v>
@@ -6398,15 +5913,15 @@
         <v>16</v>
       </c>
       <c r="H232" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>219</v>
+      <c r="A233" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B233" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C233" t="s">
         <v>15</v>
@@ -6418,15 +5933,15 @@
         <v>16</v>
       </c>
       <c r="H233" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>219</v>
+      <c r="A234" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -6438,15 +5953,15 @@
         <v>16</v>
       </c>
       <c r="H234" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>219</v>
+      <c r="A235" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B235" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
@@ -6458,12 +5973,12 @@
         <v>16</v>
       </c>
       <c r="H235" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>219</v>
+      <c r="A236" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B236" t="s">
         <v>154</v>
@@ -6478,15 +5993,15 @@
         <v>16</v>
       </c>
       <c r="H236" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>219</v>
+      <c r="A237" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B237" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
@@ -6498,15 +6013,15 @@
         <v>16</v>
       </c>
       <c r="H237" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>219</v>
+      <c r="A238" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
@@ -6518,12 +6033,12 @@
         <v>16</v>
       </c>
       <c r="H238" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" t="s">
-        <v>219</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B239" t="s">
         <v>160</v>
@@ -6541,9 +6056,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
-      <c r="A240" t="s">
-        <v>219</v>
+    <row r="240" spans="1:8">
+      <c r="A240" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B240" t="s">
         <v>161</v>
@@ -6561,12 +6076,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
-      <c r="A241" t="s">
-        <v>219</v>
+    <row r="241" spans="1:8">
+      <c r="A241" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C241" t="s">
         <v>56</v>
@@ -6581,12 +6096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
-      <c r="A242" t="s">
-        <v>219</v>
+    <row r="242" spans="1:8">
+      <c r="A242" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B242" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C242" t="s">
         <v>56</v>
@@ -6601,9 +6116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
-      <c r="A243" t="s">
-        <v>226</v>
+    <row r="243" spans="1:8">
+      <c r="A243" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B243" t="s">
         <v>9</v>
@@ -6621,9 +6136,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
-      <c r="A244" t="s">
-        <v>226</v>
+    <row r="244" spans="1:8">
+      <c r="A244" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B244" t="s">
         <v>65</v>
@@ -6641,12 +6156,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
-      <c r="A245" t="s">
-        <v>226</v>
+    <row r="245" spans="1:8">
+      <c r="A245" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B245" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C245" t="s">
         <v>66</v>
@@ -6658,15 +6173,15 @@
         <v>12</v>
       </c>
       <c r="F245" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B246" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C246" t="s">
         <v>66</v>
@@ -6681,9 +6196,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
-      <c r="A247" t="s">
-        <v>226</v>
+    <row r="247" spans="1:8">
+      <c r="A247" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B247" t="s">
         <v>135</v>
@@ -6701,12 +6216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
-      <c r="A248" t="s">
-        <v>226</v>
+    <row r="248" spans="1:8">
+      <c r="A248" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B248" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C248" t="s">
         <v>56</v>
@@ -6722,8 +6237,8 @@
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>226</v>
+      <c r="A249" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B249" t="s">
         <v>160</v>
@@ -6742,8 +6257,8 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>226</v>
+      <c r="A250" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B250" t="s">
         <v>128</v>
@@ -6761,9 +6276,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
-      <c r="A251" t="s">
-        <v>226</v>
+    <row r="251" spans="1:8">
+      <c r="A251" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B251" t="s">
         <v>161</v>
@@ -6781,12 +6296,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
-      <c r="A252" t="s">
-        <v>226</v>
+    <row r="252" spans="1:8">
+      <c r="A252" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B252" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
@@ -6801,12 +6316,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
-        <v>226</v>
+    <row r="253" spans="1:8">
+      <c r="A253" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B253" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C253" t="s">
         <v>56</v>
@@ -6821,12 +6336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
-      <c r="A254" t="s">
-        <v>226</v>
+    <row r="254" spans="1:8">
+      <c r="A254" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B254" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C254" t="s">
         <v>56</v>
@@ -6841,9 +6356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
-        <v>229</v>
+    <row r="255" spans="1:8">
+      <c r="A255" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B255" t="s">
         <v>9</v>
@@ -6861,9 +6376,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
-      <c r="A256" t="s">
-        <v>229</v>
+    <row r="256" spans="1:8">
+      <c r="A256" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B256" t="s">
         <v>65</v>
@@ -6881,12 +6396,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
-      <c r="A257" t="s">
-        <v>229</v>
+    <row r="257" spans="1:8">
+      <c r="A257" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B257" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="C257" t="s">
         <v>66</v>
@@ -6901,9 +6416,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
-      <c r="A258" t="s">
-        <v>229</v>
+    <row r="258" spans="1:8">
+      <c r="A258" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B258" t="s">
         <v>135</v>
@@ -6922,8 +6437,8 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>229</v>
+      <c r="A259" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B259" t="s">
         <v>136</v>
@@ -6942,11 +6457,11 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>229</v>
+      <c r="A260" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B260" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
@@ -6962,11 +6477,11 @@
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" t="s">
-        <v>229</v>
+      <c r="A261" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
@@ -6978,15 +6493,15 @@
         <v>16</v>
       </c>
       <c r="H261" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" t="s">
-        <v>229</v>
+      <c r="A262" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B262" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C262" t="s">
         <v>15</v>
@@ -7002,11 +6517,11 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>229</v>
+      <c r="A263" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B263" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
@@ -7018,15 +6533,15 @@
         <v>16</v>
       </c>
       <c r="H263" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" t="s">
+      <c r="A264" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B264" t="s">
         <v>229</v>
-      </c>
-      <c r="B264" t="s">
-        <v>237</v>
       </c>
       <c r="C264" t="s">
         <v>15</v>
@@ -7042,11 +6557,11 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>229</v>
+      <c r="A265" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B265" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C265" t="s">
         <v>15</v>
@@ -7058,15 +6573,15 @@
         <v>16</v>
       </c>
       <c r="H265" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>229</v>
+      <c r="A266" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B266" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C266" t="s">
         <v>15</v>
@@ -7078,12 +6593,12 @@
         <v>16</v>
       </c>
       <c r="H266" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" t="s">
-        <v>229</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B267" t="s">
         <v>161</v>
@@ -7101,12 +6616,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
-      <c r="A268" t="s">
-        <v>229</v>
+    <row r="268" spans="1:8">
+      <c r="A268" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B268" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C268" t="s">
         <v>56</v>
@@ -7121,12 +6636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
-      <c r="A269" t="s">
-        <v>229</v>
+    <row r="269" spans="1:8">
+      <c r="A269" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B269" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C269" t="s">
         <v>56</v>
@@ -7141,9 +6656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
-      <c r="A270" t="s">
-        <v>242</v>
+    <row r="270" spans="1:8">
+      <c r="A270" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B270" t="s">
         <v>9</v>
@@ -7161,9 +6676,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
-      <c r="A271" t="s">
-        <v>242</v>
+    <row r="271" spans="1:8">
+      <c r="A271" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B271" t="s">
         <v>65</v>
@@ -7181,12 +6696,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
-      <c r="A272" t="s">
-        <v>242</v>
+    <row r="272" spans="1:8">
+      <c r="A272" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B272" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C272" t="s">
         <v>66</v>
@@ -7201,9 +6716,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
-      <c r="A273" t="s">
-        <v>242</v>
+    <row r="273" spans="1:8">
+      <c r="A273" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B273" t="s">
         <v>135</v>
@@ -7222,11 +6737,11 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>242</v>
+      <c r="A274" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B274" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C274" t="s">
         <v>15</v>
@@ -7242,11 +6757,11 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>242</v>
+      <c r="A275" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B275" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C275" t="s">
         <v>15</v>
@@ -7258,15 +6773,15 @@
         <v>16</v>
       </c>
       <c r="H275" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>242</v>
+      <c r="A276" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B276" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C276" t="s">
         <v>15</v>
@@ -7281,12 +6796,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
-      <c r="A277" t="s">
-        <v>242</v>
+    <row r="277" spans="1:8">
+      <c r="A277" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B277" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C277" t="s">
         <v>15</v>
@@ -7302,8 +6817,8 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>242</v>
+      <c r="A278" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B278" t="s">
         <v>43</v>
@@ -7318,12 +6833,12 @@
         <v>16</v>
       </c>
       <c r="H278" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B279" t="s">
         <v>161</v>
@@ -7341,12 +6856,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
-      <c r="A280" t="s">
-        <v>242</v>
+    <row r="280" spans="1:8">
+      <c r="A280" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B280" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C280" t="s">
         <v>56</v>
@@ -7361,9 +6876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
-      <c r="A281" t="s">
-        <v>249</v>
+    <row r="281" spans="1:8">
+      <c r="A281" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
@@ -7381,9 +6896,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
-      <c r="A282" t="s">
-        <v>249</v>
+    <row r="282" spans="1:8">
+      <c r="A282" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B282" t="s">
         <v>65</v>
@@ -7401,12 +6916,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
-      <c r="A283" t="s">
-        <v>249</v>
+    <row r="283" spans="1:8">
+      <c r="A283" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B283" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C283" t="s">
         <v>66</v>
@@ -7421,9 +6936,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
-      <c r="A284" t="s">
-        <v>249</v>
+    <row r="284" spans="1:8">
+      <c r="A284" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B284" t="s">
         <v>135</v>
@@ -7442,11 +6957,11 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" t="s">
-        <v>249</v>
+      <c r="A285" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B285" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C285" t="s">
         <v>15</v>
@@ -7462,8 +6977,8 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>249</v>
+      <c r="A286" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B286" t="s">
         <v>80</v>
@@ -7478,12 +6993,12 @@
         <v>16</v>
       </c>
       <c r="H286" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" t="s">
-        <v>249</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B287" t="s">
         <v>161</v>
@@ -7501,12 +7016,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
-      <c r="A288" t="s">
-        <v>249</v>
+    <row r="288" spans="1:8">
+      <c r="A288" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B288" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C288" t="s">
         <v>56</v>
@@ -7521,11 +7036,479 @@
         <v>0</v>
       </c>
     </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B290" t="s">
+        <v>65</v>
+      </c>
+      <c r="C290" t="s">
+        <v>66</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B291" t="s">
+        <v>268</v>
+      </c>
+      <c r="C291" t="s">
+        <v>66</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B292" t="s">
+        <v>135</v>
+      </c>
+      <c r="C292" t="s">
+        <v>56</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B293" t="s">
+        <v>136</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293">
+        <v>5</v>
+      </c>
+      <c r="E293" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B294" t="s">
+        <v>138</v>
+      </c>
+      <c r="C294" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
+        <v>16</v>
+      </c>
+      <c r="G294">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B295" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295">
+        <v>100</v>
+      </c>
+      <c r="E295" t="s">
+        <v>16</v>
+      </c>
+      <c r="H295" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B296" t="s">
+        <v>262</v>
+      </c>
+      <c r="C296" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296">
+        <v>100</v>
+      </c>
+      <c r="E296" t="s">
+        <v>16</v>
+      </c>
+      <c r="H296" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B297" t="s">
+        <v>263</v>
+      </c>
+      <c r="C297" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>16</v>
+      </c>
+      <c r="H297" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B298" t="s">
+        <v>264</v>
+      </c>
+      <c r="C298" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298" t="s">
+        <v>16</v>
+      </c>
+      <c r="H298" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B299" t="s">
+        <v>209</v>
+      </c>
+      <c r="C299" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299">
+        <v>100</v>
+      </c>
+      <c r="E299" t="s">
+        <v>16</v>
+      </c>
+      <c r="H299" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B300" t="s">
+        <v>210</v>
+      </c>
+      <c r="C300" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300">
+        <v>100</v>
+      </c>
+      <c r="E300" t="s">
+        <v>16</v>
+      </c>
+      <c r="H300" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B301" t="s">
+        <v>43</v>
+      </c>
+      <c r="C301" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>100</v>
+      </c>
+      <c r="E301" t="s">
+        <v>16</v>
+      </c>
+      <c r="H301" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B302" t="s">
+        <v>161</v>
+      </c>
+      <c r="C302" t="s">
+        <v>24</v>
+      </c>
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" t="s">
+        <v>16</v>
+      </c>
+      <c r="F302" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B303" t="s">
+        <v>162</v>
+      </c>
+      <c r="C303" t="s">
+        <v>56</v>
+      </c>
+      <c r="D303" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>280</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>280</v>
+      </c>
+      <c r="B305" t="s">
+        <v>65</v>
+      </c>
+      <c r="C305" t="s">
+        <v>66</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>280</v>
+      </c>
+      <c r="B306" t="s">
+        <v>281</v>
+      </c>
+      <c r="C306" t="s">
+        <v>66</v>
+      </c>
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>280</v>
+      </c>
+      <c r="B307" t="s">
+        <v>135</v>
+      </c>
+      <c r="C307" t="s">
+        <v>56</v>
+      </c>
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>280</v>
+      </c>
+      <c r="B308" t="s">
+        <v>282</v>
+      </c>
+      <c r="C308" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308">
+        <v>8</v>
+      </c>
+      <c r="E308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>280</v>
+      </c>
+      <c r="B309" t="s">
+        <v>283</v>
+      </c>
+      <c r="C309" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309">
+        <v>200</v>
+      </c>
+      <c r="E309" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>280</v>
+      </c>
+      <c r="B310" t="s">
+        <v>284</v>
+      </c>
+      <c r="C310" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>280</v>
+      </c>
+      <c r="B311" t="s">
+        <v>265</v>
+      </c>
+      <c r="C311" t="s">
+        <v>266</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>280</v>
+      </c>
+      <c r="B312" t="s">
+        <v>161</v>
+      </c>
+      <c r="C312" t="s">
+        <v>24</v>
+      </c>
+      <c r="D312" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>280</v>
+      </c>
+      <c r="B313" t="s">
+        <v>162</v>
+      </c>
+      <c r="C313" t="s">
+        <v>56</v>
+      </c>
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H288" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H288" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E266D55D-E06A-44C8-AFC0-A28AF763DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0479640-435D-472B-AE03-A1C1D9CA5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="287">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -852,12 +852,6 @@
     <t>HISSU</t>
   </si>
   <si>
-    <t>TIME_STAMP</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>T_KIHON_PJ_ICHIRAN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -923,6 +917,22 @@
   </si>
   <si>
     <t>SHITEI_NASHI</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1251,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="D297" sqref="D297"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
@@ -3975,7 +3985,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
@@ -4018,7 +4028,7 @@
         <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
         <v>66</v>
@@ -4255,7 +4265,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B150" t="s">
         <v>162</v>
@@ -6358,7 +6368,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B255" t="s">
         <v>9</v>
@@ -6401,7 +6411,7 @@
         <v>222</v>
       </c>
       <c r="B257" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C257" t="s">
         <v>66</v>
@@ -7038,7 +7048,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
@@ -7078,10 +7088,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B291" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C291" t="s">
         <v>66</v>
@@ -7093,7 +7103,7 @@
         <v>12</v>
       </c>
       <c r="F291" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7193,7 +7203,7 @@
         <v>16</v>
       </c>
       <c r="H296" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -7213,7 +7223,7 @@
         <v>16</v>
       </c>
       <c r="H297" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -7233,7 +7243,7 @@
         <v>16</v>
       </c>
       <c r="H298" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -7253,7 +7263,7 @@
         <v>16</v>
       </c>
       <c r="H299" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -7273,7 +7283,7 @@
         <v>16</v>
       </c>
       <c r="H300" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -7293,7 +7303,7 @@
         <v>16</v>
       </c>
       <c r="H301" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -7337,8 +7347,8 @@
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>280</v>
+      <c r="A304" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
@@ -7352,10 +7362,13 @@
       <c r="E304" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" t="s">
-        <v>280</v>
+      <c r="F304" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B305" t="s">
         <v>65</v>
@@ -7369,13 +7382,16 @@
       <c r="E305" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" t="s">
-        <v>280</v>
+      <c r="F305" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B306" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C306" t="s">
         <v>66</v>
@@ -7386,10 +7402,13 @@
       <c r="E306" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" t="s">
-        <v>280</v>
+      <c r="F306" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B307" t="s">
         <v>135</v>
@@ -7403,13 +7422,16 @@
       <c r="E307" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" t="s">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B308" t="s">
         <v>280</v>
-      </c>
-      <c r="B308" t="s">
-        <v>282</v>
       </c>
       <c r="C308" t="s">
         <v>15</v>
@@ -7420,13 +7442,16 @@
       <c r="E308" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" t="s">
-        <v>280</v>
+      <c r="H308" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B309" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C309" t="s">
         <v>15</v>
@@ -7437,13 +7462,16 @@
       <c r="E309" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" t="s">
-        <v>280</v>
+      <c r="H309" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B310" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C310" t="s">
         <v>15</v>
@@ -7454,56 +7482,48 @@
       <c r="E310" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" t="s">
-        <v>280</v>
+      <c r="H310" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B311" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="C311" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="D311" t="s">
         <v>11</v>
       </c>
       <c r="E311" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" t="s">
-        <v>280</v>
+        <v>16</v>
+      </c>
+      <c r="F311" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B312" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D312" t="s">
         <v>11</v>
       </c>
       <c r="E312" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" t="s">
-        <v>280</v>
-      </c>
-      <c r="B313" t="s">
-        <v>162</v>
-      </c>
-      <c r="C313" t="s">
-        <v>56</v>
-      </c>
-      <c r="D313" t="s">
-        <v>11</v>
-      </c>
-      <c r="E313" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0479640-435D-472B-AE03-A1C1D9CA5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F781510-2181-45E7-BD12-B75E0C8888EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="288">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -932,6 +932,10 @@
   </si>
   <si>
     <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1263,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
@@ -1945,7 +1949,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F781510-2181-45E7-BD12-B75E0C8888EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D0A2B-4786-4BAE-BD0D-D28AD53F01D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="294">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -936,6 +936,30 @@
   </si>
   <si>
     <t>T_KIHON_PJ_GAMEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1267,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
@@ -4229,7 +4253,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="B148" t="s">
         <v>43</v>
@@ -4309,7 +4333,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
@@ -4852,7 +4876,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="B179" t="s">
         <v>9</v>
@@ -5252,7 +5276,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="B199" t="s">
         <v>154</v>
@@ -6452,7 +6476,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="2" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="B259" t="s">
         <v>136</v>
@@ -7166,7 +7190,7 @@
       <c r="E294" t="s">
         <v>16</v>
       </c>
-      <c r="G294">
+      <c r="F294">
         <v>999999</v>
       </c>
     </row>
@@ -7512,7 +7536,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B312" t="s">
         <v>162</v>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D0A2B-4786-4BAE-BD0D-D28AD53F01D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480FC483-7667-4D5D-893E-57962BC7D836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$312</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="297">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -44,18 +44,12 @@
     <t>COLUMN_NAME</t>
   </si>
   <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
     <t>CHARACTER_MAXIMUM_LENGTH</t>
   </si>
   <si>
     <t>IS_NULLABLE</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>CELL_FIX</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>UNYOU_CYUUI_AOJI</t>
   </si>
   <si>
-    <t>PG_KOUSUU</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -342,9 +333,6 @@
   </si>
   <si>
     <t>OUTPUT_PRINT_AOJI</t>
-  </si>
-  <si>
-    <t>IPO_DENSHU_KBN_CD</t>
   </si>
   <si>
     <t>IPO_MANI_KBN</t>
@@ -960,6 +948,34 @@
   </si>
   <si>
     <t>T_KIHON_PJ_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPO_DENSHU_KBN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG_KOUSUU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1291,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="I311" sqref="I311"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
@@ -1313,219 +1329,219 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1533,339 +1549,339 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>-1</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>-1</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1873,19 +1889,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1893,39 +1909,39 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1933,339 +1949,339 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>-1</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>-1</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>-1</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>-1</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2273,19 +2289,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2293,219 +2309,219 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>-1</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2513,19 +2529,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2533,19 +2549,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2553,19 +2569,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2573,19 +2589,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2593,19 +2609,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2613,19 +2629,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2633,59 +2649,59 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2693,39 +2709,39 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2733,119 +2749,119 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2853,19 +2869,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2873,19 +2889,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2893,19 +2909,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2913,299 +2929,299 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
         <v>47</v>
-      </c>
-      <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>2000</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89">
         <v>2000</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>200</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92">
         <v>-1</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>-1</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3213,239 +3229,239 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
         <v>125</v>
-      </c>
-      <c r="B99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <v>-1</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3453,39 +3469,39 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D109">
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F109">
         <v>999999</v>
@@ -3493,279 +3509,279 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D110">
         <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D116">
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>100</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D118">
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D119">
         <v>100</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>100</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>-1</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3773,99 +3789,99 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3873,19 +3889,19 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3893,99 +3909,99 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130">
         <v>170</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133">
         <v>170</v>
       </c>
       <c r="E133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3993,19 +4009,19 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4013,99 +4029,99 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C137" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4113,19 +4129,19 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F141">
         <v>999999</v>
@@ -4133,39 +4149,39 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
         <v>167</v>
       </c>
-      <c r="B142" t="s">
-        <v>171</v>
-      </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142">
         <v>100</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F143">
         <v>999999</v>
@@ -4173,59 +4189,59 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144">
         <v>100</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145">
         <v>-1</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D146">
         <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F146">
         <v>999999</v>
@@ -4233,79 +4249,79 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <v>100</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>100</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C150" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4313,19 +4329,19 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4333,79 +4349,79 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C153" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C154" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B155" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4413,39 +4429,39 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D157">
         <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F157">
         <v>999999</v>
@@ -4453,402 +4469,402 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D158">
         <v>100</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C159" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H159" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D160">
         <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" t="s">
         <v>180</v>
       </c>
-      <c r="B161" t="s">
-        <v>184</v>
-      </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D162">
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C164" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D169">
         <v>100</v>
       </c>
       <c r="E169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D170">
         <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D171">
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D172">
         <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D173">
         <v>100</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D174">
         <v>-1</v>
       </c>
       <c r="E174" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4856,19 +4872,19 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4876,99 +4892,99 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B182" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4976,19 +4992,19 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C184" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4996,99 +5012,99 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D185">
         <v>170</v>
       </c>
       <c r="E185" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D186">
         <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D188">
         <v>170</v>
       </c>
       <c r="E188" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5096,19 +5112,19 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C190" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5116,79 +5132,79 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B192" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C192" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B194" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C194" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5196,39 +5212,39 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D195">
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D196">
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F196">
         <v>999999</v>
@@ -5236,159 +5252,159 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D197">
         <v>100</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D198">
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B199" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D199">
         <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D200">
         <v>100</v>
       </c>
       <c r="E200" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D201">
         <v>100</v>
       </c>
       <c r="E201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D202">
         <v>-1</v>
       </c>
       <c r="E202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C204" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5396,19 +5412,19 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5416,99 +5432,99 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E207" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C208" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C209" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C210" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -5516,19 +5532,19 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C211" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5536,99 +5552,99 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B212" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D212">
         <v>170</v>
       </c>
       <c r="E212" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D213">
         <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B214" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B215" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D215">
         <v>170</v>
       </c>
       <c r="E215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B216" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5636,19 +5652,19 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B217" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C217" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -5656,79 +5672,79 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C219" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B220" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C220" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C221" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -5736,39 +5752,39 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D222">
         <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B223" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D223">
         <v>6</v>
       </c>
       <c r="E223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F223">
         <v>999999</v>
@@ -5776,359 +5792,359 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B224" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D224">
         <v>100</v>
       </c>
       <c r="E224" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B225" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C225" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B226" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226">
         <v>20</v>
       </c>
       <c r="E226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B227" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D227">
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C228" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B229" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C229" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B231" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B232" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D232">
         <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B233" t="s">
         <v>213</v>
       </c>
-      <c r="B233" t="s">
-        <v>217</v>
-      </c>
       <c r="C233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B234" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D234">
         <v>2</v>
       </c>
       <c r="E234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B235" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D235">
         <v>50</v>
       </c>
       <c r="E235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B236" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D236">
         <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B237" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D237">
         <v>100</v>
       </c>
       <c r="E237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C238" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D238">
         <v>100</v>
       </c>
       <c r="E238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D239">
         <v>-1</v>
       </c>
       <c r="E239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B240" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C240" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B241" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C241" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6136,19 +6152,19 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B242" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E242" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6156,99 +6172,99 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B244" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C244" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E244" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B245" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C245" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B246" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C246" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B247" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C247" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6256,19 +6272,19 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B248" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6276,99 +6292,99 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B249" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D249">
         <v>170</v>
       </c>
       <c r="E249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B250" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D250">
         <v>10</v>
       </c>
       <c r="E250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B251" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C251" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E251" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D252">
         <v>170</v>
       </c>
       <c r="E252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C253" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6376,19 +6392,19 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B254" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C254" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6396,79 +6412,79 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B256" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C256" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B257" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C257" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B258" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C258" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -6476,199 +6492,199 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B259" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C259" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D259">
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B260" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D260">
         <v>30</v>
       </c>
       <c r="E260" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B261" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C261" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D261">
         <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B262" t="s">
         <v>222</v>
       </c>
-      <c r="B262" t="s">
-        <v>226</v>
-      </c>
       <c r="C262" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D262">
         <v>30</v>
       </c>
       <c r="E262" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B263" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C263" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D263">
         <v>30</v>
       </c>
       <c r="E263" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B264" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C264" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D264">
         <v>20</v>
       </c>
       <c r="E264" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B265" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C265" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D265">
         <v>20</v>
       </c>
       <c r="E265" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B266" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C266" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D266">
         <v>20</v>
       </c>
       <c r="E266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B267" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B268" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C268" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -6676,19 +6692,19 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B269" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C269" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -6696,79 +6712,79 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B271" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C271" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E271" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B272" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C272" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B273" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C273" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E273" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -6776,139 +6792,139 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B274" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D274">
         <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B275" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C275" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D275">
         <v>200</v>
       </c>
       <c r="E275" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B276" t="s">
         <v>234</v>
       </c>
-      <c r="B276" t="s">
-        <v>238</v>
-      </c>
       <c r="C276" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D276">
         <v>15</v>
       </c>
       <c r="E276" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B277" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C277" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D277">
         <v>10</v>
       </c>
       <c r="E277" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D278">
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B279" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C279" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B280" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C280" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D280" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6916,79 +6932,79 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B282" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C282" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D282" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E282" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B283" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C283" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E283" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B284" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C284" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D284" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6996,79 +7012,79 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B285" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C285" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D285">
         <v>8</v>
       </c>
       <c r="E285" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B286" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C286" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D286">
         <v>200</v>
       </c>
       <c r="E286" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B287" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E287" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B288" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C288" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D288" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E288" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7076,79 +7092,79 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D289" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E289" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B290" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C290" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D290" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E290" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B291" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C291" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D291" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E291" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B292" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C292" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D292" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -7156,39 +7172,39 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B293" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C293" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D293">
         <v>5</v>
       </c>
       <c r="E293" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B294" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C294" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D294">
         <v>6</v>
       </c>
       <c r="E294" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F294">
         <v>999999</v>
@@ -7196,179 +7212,179 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B295" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D295">
         <v>100</v>
       </c>
       <c r="E295" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H295" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B296" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D296">
         <v>100</v>
       </c>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B297" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D297">
         <v>8</v>
       </c>
       <c r="E297" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B298" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D298">
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B299" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C299" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D299">
         <v>100</v>
       </c>
       <c r="E299" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B300" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C300" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D300">
         <v>100</v>
       </c>
       <c r="E300" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B301" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D301">
         <v>100</v>
       </c>
       <c r="E301" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H301" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B302" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E302" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B303" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C303" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E303" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -7376,79 +7392,79 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D304" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B305" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C305" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D305" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B306" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C306" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D306" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B307" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C307" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D307" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -7456,106 +7472,106 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B308" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C308" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D308">
         <v>8</v>
       </c>
       <c r="E308" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B309" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D309">
         <v>200</v>
       </c>
       <c r="E309" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B310" t="s">
         <v>278</v>
       </c>
-      <c r="B310" t="s">
-        <v>282</v>
-      </c>
       <c r="C310" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D310">
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H310" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B311" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D311" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E311" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B312" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C312" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D312" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H288" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H312" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480FC483-7667-4D5D-893E-57962BC7D836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1975CF-3D32-4A7A-A556-4B7C20CB8F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="306">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -92,9 +92,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
     <t>W3</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>JYUN</t>
   </si>
   <si>
-    <t>GAMEN_KBN</t>
-  </si>
-  <si>
     <t>MAPPING</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>F7</t>
   </si>
   <si>
-    <t>SHEET_NAME</t>
-  </si>
-  <si>
     <t>BUNRUI</t>
   </si>
   <si>
@@ -479,9 +470,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>KASSEI_SONOTA</t>
-  </si>
-  <si>
     <t>HISSU_CHK</t>
   </si>
   <si>
@@ -530,36 +518,12 @@
     <t>T_KIHON_PJ_IPO</t>
   </si>
   <si>
-    <t>MIDASHI</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>IN_GAMEN_ID</t>
-  </si>
-  <si>
-    <t>IN_GAMEN_NAME</t>
-  </si>
-  <si>
-    <t>IN_BUHIN_CD</t>
-  </si>
-  <si>
-    <t>IN_BUHIN_NAME</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>PROCESS</t>
   </si>
   <si>
-    <t>OUT_BUHIN_CD</t>
-  </si>
-  <si>
-    <t>OUT_BUHIN_NAME</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
@@ -668,9 +632,6 @@
     <t>T_KIHON_PJ_KOUMOKU_RE</t>
   </si>
   <si>
-    <t>SEQ_RE</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
@@ -687,9 +648,6 @@
   </si>
   <si>
     <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
   </si>
   <si>
     <t>T_KIHON_PJ_MENU</t>
@@ -895,9 +853,6 @@
     <t>T_KIHON_PJ_HYOUJI</t>
   </si>
   <si>
-    <t>SEQ_H</t>
-  </si>
-  <si>
     <t>TEIGI_KBN</t>
   </si>
   <si>
@@ -976,6 +931,102 @@
   </si>
   <si>
     <t>NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHEET_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KASSEI_SONOTA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAPPING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAMEN_KBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDASHI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_GAMEN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_GAMEN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_BUHIN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_BUHIN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_BUHIN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_BUHIN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIKOU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN.SEQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -999,7 +1050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1060,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,11 +1088,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1305,20 +1370,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.9140625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="26.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1329,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1338,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1347,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1367,9 +1429,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1387,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1407,12 +1469,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1424,15 +1486,15 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1444,19 +1506,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -1464,15 +1526,15 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1487,12 +1549,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1504,15 +1566,15 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -1527,12 +1589,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1547,12 +1609,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1567,12 +1629,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1587,12 +1649,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1607,12 +1669,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1624,15 +1686,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -1644,15 +1706,15 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -1664,15 +1726,15 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -1684,15 +1746,15 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -1707,12 +1769,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -1727,12 +1789,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -1744,15 +1806,15 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -1764,35 +1826,35 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -1804,15 +1866,15 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -1824,35 +1886,35 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -1864,18 +1926,18 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1887,15 +1949,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1907,12 +1969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1924,18 +1986,18 @@
         <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1947,12 +2009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1967,12 +2029,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1984,12 +2046,12 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2004,75 +2066,78 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1">
+      <c r="A35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>64</v>
       </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="36" spans="1:7" hidden="1">
+      <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
       <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1">
+      <c r="A38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2084,15 +2149,15 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2104,15 +2169,15 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2124,15 +2189,15 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2147,12 +2212,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2164,15 +2229,15 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2184,15 +2249,15 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2204,15 +2269,15 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2224,15 +2289,15 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2247,12 +2312,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2267,15 +2332,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2287,15 +2352,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -2307,15 +2372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2324,18 +2389,18 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -2344,15 +2409,15 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2367,12 +2432,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2384,15 +2449,15 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2404,15 +2469,15 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2424,15 +2489,15 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2444,15 +2509,15 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2464,15 +2529,15 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2484,15 +2549,15 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2504,18 +2569,18 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -2527,15 +2592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2547,15 +2612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2567,15 +2632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -2587,15 +2652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2607,15 +2672,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2627,15 +2692,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -2647,15 +2712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -2664,18 +2729,18 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2684,18 +2749,18 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2707,12 +2772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2724,18 +2789,18 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -2747,12 +2812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -2764,15 +2829,15 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -2784,15 +2849,15 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -2804,15 +2869,15 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -2824,15 +2889,15 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -2844,18 +2909,18 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" t="s">
-        <v>108</v>
+        <v>60</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2867,15 +2932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -2887,15 +2952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2907,15 +2972,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2927,12 +2992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -2944,35 +3009,35 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1">
+      <c r="A82" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>45</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
         <v>46</v>
       </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
+    </row>
+    <row r="83" spans="1:6" hidden="1">
+      <c r="A83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" t="s">
-        <v>48</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -2984,15 +3049,15 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1">
+      <c r="A84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" t="s">
-        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -3004,35 +3069,35 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1">
+      <c r="A86" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s">
         <v>51</v>
-      </c>
-      <c r="C85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" t="s">
-        <v>52</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -3044,15 +3109,15 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -3064,15 +3129,15 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3084,15 +3149,15 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -3104,15 +3169,15 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -3124,15 +3189,15 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -3144,15 +3209,15 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -3164,15 +3229,15 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -3184,18 +3249,18 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -3204,18 +3269,18 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -3227,9 +3292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3244,75 +3309,75 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1">
+      <c r="A97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="2" t="s">
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1">
+      <c r="A98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1">
+      <c r="A99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" t="s">
         <v>121</v>
       </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -3324,15 +3389,15 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -3344,18 +3409,18 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -3364,18 +3429,18 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -3384,12 +3449,12 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3404,58 +3469,58 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1">
+      <c r="A105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>63</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1">
+      <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
         <v>64</v>
       </c>
-      <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+    </row>
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -3467,12 +3532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
         <v>129</v>
-      </c>
-      <c r="B108" t="s">
-        <v>132</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -3484,15 +3549,15 @@
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -3507,12 +3572,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -3524,15 +3589,15 @@
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -3544,15 +3609,15 @@
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -3564,15 +3629,15 @@
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -3584,15 +3649,15 @@
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -3604,15 +3669,15 @@
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -3624,15 +3689,15 @@
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -3644,15 +3709,15 @@
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -3664,15 +3729,15 @@
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -3684,15 +3749,15 @@
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -3704,15 +3769,15 @@
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -3724,15 +3789,15 @@
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -3744,18 +3809,18 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -3764,18 +3829,18 @@
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -3787,9 +3852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -3804,78 +3869,78 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1">
+      <c r="A125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>63</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1">
+      <c r="A126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1">
+      <c r="A127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
         <v>64</v>
       </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B126" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B127" t="s">
-        <v>240</v>
-      </c>
-      <c r="C127" t="s">
-        <v>64</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+    </row>
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -3887,15 +3952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -3907,12 +3972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -3924,15 +3989,15 @@
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -3944,35 +4009,35 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1">
+      <c r="A133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" t="s">
         <v>157</v>
-      </c>
-      <c r="C132" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B133" t="s">
-        <v>161</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -3984,18 +4049,18 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -4007,15 +4072,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -4027,9 +4092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -4044,58 +4109,58 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1">
+      <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>63</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1">
+      <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
         <v>64</v>
       </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B138" t="s">
-        <v>266</v>
-      </c>
-      <c r="C138" t="s">
-        <v>64</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+    </row>
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -4103,19 +4168,19 @@
       <c r="E139" t="s">
         <v>10</v>
       </c>
-      <c r="G139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="H139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -4127,12 +4192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -4147,12 +4212,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -4164,15 +4229,15 @@
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -4187,12 +4252,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -4204,15 +4269,15 @@
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -4224,15 +4289,15 @@
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -4247,12 +4312,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -4264,15 +4329,15 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -4287,15 +4352,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
@@ -4304,18 +4369,18 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
@@ -4327,15 +4392,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
         <v>163</v>
       </c>
-      <c r="B151" t="s">
-        <v>175</v>
-      </c>
       <c r="C151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
@@ -4347,9 +4412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -4364,58 +4429,58 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1">
+      <c r="A153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>63</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
         <v>64</v>
       </c>
-      <c r="D153" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B154" t="s">
-        <v>177</v>
-      </c>
-      <c r="C154" t="s">
-        <v>64</v>
-      </c>
-      <c r="D154" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+    </row>
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
@@ -4427,12 +4492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -4444,15 +4509,15 @@
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -4467,12 +4532,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -4484,18 +4549,18 @@
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
@@ -4504,18 +4569,18 @@
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H159" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1">
       <c r="A160" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -4527,15 +4592,15 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -4547,78 +4612,78 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1">
+      <c r="A163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1">
+      <c r="A164" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
         <v>176</v>
       </c>
-      <c r="B162" t="s">
-        <v>182</v>
-      </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162">
-        <v>10</v>
-      </c>
-      <c r="E162" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B163" t="s">
-        <v>184</v>
-      </c>
-      <c r="C163" t="s">
-        <v>64</v>
-      </c>
-      <c r="D163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" t="s">
-        <v>14</v>
-      </c>
-      <c r="H163" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B164" t="s">
-        <v>186</v>
-      </c>
-      <c r="C164" t="s">
-        <v>64</v>
-      </c>
-      <c r="D164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" t="s">
-        <v>14</v>
-      </c>
-      <c r="H164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165" t="s">
-        <v>188</v>
-      </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
@@ -4627,18 +4692,18 @@
         <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -4647,15 +4712,15 @@
         <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -4667,15 +4732,15 @@
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -4687,15 +4752,15 @@
         <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -4707,15 +4772,15 @@
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
@@ -4727,15 +4792,15 @@
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
@@ -4747,15 +4812,15 @@
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -4767,15 +4832,15 @@
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B173" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -4787,15 +4852,15 @@
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B174" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -4807,18 +4872,18 @@
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
@@ -4830,15 +4895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
@@ -4847,18 +4912,18 @@
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
@@ -4870,15 +4935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
@@ -4890,9 +4955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4907,78 +4972,78 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1">
+      <c r="A180" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>63</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1">
+      <c r="A181" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" t="s">
+        <v>165</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" hidden="1">
+      <c r="A182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
         <v>64</v>
       </c>
-      <c r="D180" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B181" t="s">
-        <v>177</v>
-      </c>
-      <c r="C181" t="s">
-        <v>64</v>
-      </c>
-      <c r="D181" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B182" t="s">
-        <v>203</v>
-      </c>
-      <c r="C182" t="s">
-        <v>64</v>
-      </c>
-      <c r="D182" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+    </row>
+    <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
@@ -4990,15 +5055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -5010,12 +5075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" hidden="1">
       <c r="A185" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -5027,15 +5092,15 @@
         <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" hidden="1">
       <c r="A186" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -5047,35 +5112,35 @@
         <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" hidden="1">
       <c r="A187" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
+        <v>153</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1">
+      <c r="A188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
         <v>157</v>
-      </c>
-      <c r="C187" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B188" t="s">
-        <v>161</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -5087,18 +5152,18 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1">
       <c r="A189" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
@@ -5110,15 +5175,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" hidden="1">
       <c r="A190" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
@@ -5130,9 +5195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" hidden="1">
       <c r="A191" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -5147,58 +5212,58 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" hidden="1">
+      <c r="A192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>63</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>232</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
         <v>64</v>
       </c>
-      <c r="D192" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B193" t="s">
-        <v>246</v>
-      </c>
-      <c r="C193" t="s">
-        <v>64</v>
-      </c>
-      <c r="D193" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" t="s">
-        <v>10</v>
-      </c>
-      <c r="F193" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+    </row>
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -5210,12 +5275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -5227,15 +5292,15 @@
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -5250,12 +5315,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
@@ -5267,15 +5332,15 @@
         <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
@@ -5287,15 +5352,15 @@
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -5307,15 +5372,15 @@
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1">
       <c r="A200" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B200" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -5327,15 +5392,15 @@
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -5347,15 +5412,15 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B202" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
@@ -5367,18 +5432,18 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
@@ -5387,18 +5452,18 @@
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B204" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
@@ -5410,15 +5475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
@@ -5430,9 +5495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -5447,78 +5512,78 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1">
+      <c r="A207" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>63</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1">
+      <c r="A208" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B208" t="s">
+        <v>232</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" hidden="1">
+      <c r="A209" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B209" t="s">
+        <v>233</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
         <v>64</v>
       </c>
-      <c r="D207" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" t="s">
-        <v>10</v>
-      </c>
-      <c r="F207" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B208" t="s">
-        <v>246</v>
-      </c>
-      <c r="C208" t="s">
-        <v>64</v>
-      </c>
-      <c r="D208" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>247</v>
-      </c>
-      <c r="C209" t="s">
-        <v>64</v>
-      </c>
-      <c r="D209" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" t="s">
-        <v>10</v>
-      </c>
-      <c r="F209" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+    </row>
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B210" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -5530,15 +5595,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B211" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
@@ -5550,12 +5615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B212" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -5567,15 +5632,15 @@
         <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B213" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -5587,35 +5652,35 @@
         <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B214" t="s">
+        <v>153</v>
+      </c>
+      <c r="C214" t="s">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1">
+      <c r="A215" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B215" t="s">
         <v>157</v>
-      </c>
-      <c r="C214" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" t="s">
-        <v>14</v>
-      </c>
-      <c r="F214" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B215" t="s">
-        <v>161</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -5627,18 +5692,18 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B216" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -5650,15 +5715,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B217" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
@@ -5672,7 +5737,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -5687,19 +5752,19 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B219" t="s">
+        <v>62</v>
+      </c>
+      <c r="C219" t="s">
         <v>63</v>
       </c>
-      <c r="C219" t="s">
-        <v>64</v>
-      </c>
       <c r="D219" t="s">
         <v>9</v>
       </c>
@@ -5707,38 +5772,38 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
         <v>64</v>
-      </c>
-      <c r="D220" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220" t="s">
-        <v>10</v>
-      </c>
-      <c r="F220" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B221" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
@@ -5752,10 +5817,10 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -5767,15 +5832,15 @@
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B223" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -5792,10 +5857,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B224" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -5807,18 +5872,18 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C225" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
@@ -5827,15 +5892,18 @@
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H225" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B226" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -5847,15 +5915,15 @@
         <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B227" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -5867,18 +5935,18 @@
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B228" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C228" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
@@ -5887,18 +5955,18 @@
         <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B229" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C229" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
@@ -5907,18 +5975,18 @@
         <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B230" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -5927,18 +5995,18 @@
         <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B231" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
@@ -5947,15 +6015,15 @@
         <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
@@ -5967,15 +6035,15 @@
         <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -5987,15 +6055,15 @@
         <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
@@ -6007,15 +6075,15 @@
         <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B235" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -6027,15 +6095,15 @@
         <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B236" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
@@ -6047,15 +6115,15 @@
         <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B237" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -6067,15 +6135,15 @@
         <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B238" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
@@ -6087,15 +6155,15 @@
         <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B239" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -6107,18 +6175,18 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B240" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -6127,18 +6195,18 @@
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B241" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -6152,13 +6220,13 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B242" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D242" t="s">
         <v>9</v>
@@ -6172,7 +6240,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -6187,19 +6255,19 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B244" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" t="s">
         <v>63</v>
       </c>
-      <c r="C244" t="s">
-        <v>64</v>
-      </c>
       <c r="D244" t="s">
         <v>9</v>
       </c>
@@ -6207,18 +6275,18 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B245" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="C245" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
@@ -6227,38 +6295,38 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" t="s">
         <v>64</v>
-      </c>
-      <c r="D246" t="s">
-        <v>9</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B247" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
@@ -6272,13 +6340,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B248" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -6292,10 +6360,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B249" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -6307,15 +6375,15 @@
         <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B250" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -6327,18 +6395,18 @@
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B251" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D251" t="s">
         <v>9</v>
@@ -6347,15 +6415,15 @@
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B252" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -6367,18 +6435,18 @@
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B253" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D253" t="s">
         <v>9</v>
@@ -6392,13 +6460,13 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B254" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -6410,9 +6478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" hidden="1">
       <c r="A255" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -6427,58 +6495,58 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1">
+      <c r="A256" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B256" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>63</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1">
+      <c r="A257" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B257" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" t="s">
         <v>64</v>
       </c>
-      <c r="D256" t="s">
-        <v>9</v>
-      </c>
-      <c r="E256" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B257" t="s">
-        <v>264</v>
-      </c>
-      <c r="C257" t="s">
-        <v>64</v>
-      </c>
-      <c r="D257" t="s">
-        <v>9</v>
-      </c>
-      <c r="E257" t="s">
-        <v>10</v>
-      </c>
-      <c r="F257" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+    </row>
+    <row r="258" spans="1:8" hidden="1">
       <c r="A258" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B258" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D258" t="s">
         <v>9</v>
@@ -6490,12 +6558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" hidden="1">
       <c r="A259" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B259" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -6507,15 +6575,15 @@
         <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1">
       <c r="A260" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B260" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -6527,15 +6595,15 @@
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1">
       <c r="A261" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B261" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -6547,15 +6615,15 @@
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1">
       <c r="A262" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B262" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -6567,15 +6635,15 @@
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1">
       <c r="A263" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B263" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -6587,15 +6655,15 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1">
       <c r="A264" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B264" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -6607,15 +6675,15 @@
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1">
       <c r="A265" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B265" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -6627,15 +6695,15 @@
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1">
       <c r="A266" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B266" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -6647,18 +6715,18 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" hidden="1">
       <c r="A267" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B267" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D267" t="s">
         <v>9</v>
@@ -6667,18 +6735,18 @@
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" hidden="1">
       <c r="A268" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B268" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D268" t="s">
         <v>9</v>
@@ -6690,15 +6758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" hidden="1">
       <c r="A269" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B269" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D269" t="s">
         <v>9</v>
@@ -6710,9 +6778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" hidden="1">
       <c r="A270" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6727,58 +6795,58 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" hidden="1">
+      <c r="A271" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B271" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>63</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1">
+      <c r="A272" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B272" t="s">
+        <v>240</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" t="s">
         <v>64</v>
       </c>
-      <c r="D271" t="s">
-        <v>9</v>
-      </c>
-      <c r="E271" t="s">
-        <v>10</v>
-      </c>
-      <c r="F271" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B272" t="s">
-        <v>254</v>
-      </c>
-      <c r="C272" t="s">
-        <v>64</v>
-      </c>
-      <c r="D272" t="s">
-        <v>9</v>
-      </c>
-      <c r="E272" t="s">
-        <v>10</v>
-      </c>
-      <c r="F272" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+    </row>
+    <row r="273" spans="1:8" hidden="1">
       <c r="A273" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B273" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D273" t="s">
         <v>9</v>
@@ -6790,12 +6858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" hidden="1">
       <c r="A274" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B274" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -6807,15 +6875,15 @@
         <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1">
       <c r="A275" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B275" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -6827,15 +6895,15 @@
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1">
       <c r="A276" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B276" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -6847,15 +6915,15 @@
         <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1">
       <c r="A277" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B277" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -6867,15 +6935,15 @@
         <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1">
       <c r="A278" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -6887,18 +6955,18 @@
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1">
       <c r="A279" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B279" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D279" t="s">
         <v>9</v>
@@ -6907,18 +6975,18 @@
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1">
       <c r="A280" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B280" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D280" t="s">
         <v>9</v>
@@ -6930,9 +6998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" hidden="1">
       <c r="A281" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -6947,58 +7015,58 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1">
+      <c r="A282" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B282" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>63</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1">
+      <c r="A283" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B283" t="s">
+        <v>242</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" t="s">
         <v>64</v>
       </c>
-      <c r="D282" t="s">
-        <v>9</v>
-      </c>
-      <c r="E282" t="s">
-        <v>10</v>
-      </c>
-      <c r="F282" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B283" t="s">
-        <v>256</v>
-      </c>
-      <c r="C283" t="s">
-        <v>64</v>
-      </c>
-      <c r="D283" t="s">
-        <v>9</v>
-      </c>
-      <c r="E283" t="s">
-        <v>10</v>
-      </c>
-      <c r="F283" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+    </row>
+    <row r="284" spans="1:8" hidden="1">
       <c r="A284" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B284" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C284" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D284" t="s">
         <v>9</v>
@@ -7010,12 +7078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" hidden="1">
       <c r="A285" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B285" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
@@ -7027,15 +7095,15 @@
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1">
       <c r="A286" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B286" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C286" t="s">
         <v>13</v>
@@ -7047,18 +7115,18 @@
         <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1">
       <c r="A287" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B287" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C287" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
         <v>9</v>
@@ -7067,18 +7135,18 @@
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1">
       <c r="A288" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B288" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
@@ -7090,9 +7158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" hidden="1">
       <c r="A289" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -7107,19 +7175,19 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" hidden="1">
+      <c r="A290" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B290" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>63</v>
       </c>
-      <c r="C290" t="s">
-        <v>64</v>
-      </c>
       <c r="D290" t="s">
         <v>9</v>
       </c>
@@ -7127,18 +7195,18 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1">
       <c r="A291" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B291" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C291" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D291" t="s">
         <v>9</v>
@@ -7147,18 +7215,18 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1">
       <c r="A292" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B292" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
@@ -7170,12 +7238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" hidden="1">
       <c r="A293" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B293" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -7187,15 +7255,15 @@
         <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1">
       <c r="A294" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B294" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
@@ -7210,12 +7278,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" hidden="1">
       <c r="A295" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B295" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -7227,15 +7295,15 @@
         <v>14</v>
       </c>
       <c r="H295" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1">
       <c r="A296" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B296" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -7247,15 +7315,15 @@
         <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1">
       <c r="A297" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B297" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -7267,15 +7335,15 @@
         <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1">
       <c r="A298" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B298" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C298" t="s">
         <v>13</v>
@@ -7287,15 +7355,15 @@
         <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1">
       <c r="A299" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B299" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C299" t="s">
         <v>13</v>
@@ -7307,15 +7375,15 @@
         <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1">
       <c r="A300" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B300" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
@@ -7327,15 +7395,15 @@
         <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1">
       <c r="A301" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B301" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C301" t="s">
         <v>13</v>
@@ -7347,18 +7415,18 @@
         <v>14</v>
       </c>
       <c r="H301" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1">
       <c r="A302" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B302" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D302" t="s">
         <v>9</v>
@@ -7367,18 +7435,18 @@
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1">
       <c r="A303" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B303" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C303" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D303" t="s">
         <v>9</v>
@@ -7390,9 +7458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" hidden="1">
       <c r="A304" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -7407,19 +7475,19 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1">
+      <c r="A305" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B305" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>63</v>
       </c>
-      <c r="C305" t="s">
-        <v>64</v>
-      </c>
       <c r="D305" t="s">
         <v>9</v>
       </c>
@@ -7427,18 +7495,18 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B306" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C306" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D306" t="s">
         <v>9</v>
@@ -7447,18 +7515,18 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1">
       <c r="A307" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B307" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C307" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D307" t="s">
         <v>9</v>
@@ -7470,12 +7538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B308" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C308" t="s">
         <v>13</v>
@@ -7487,15 +7555,15 @@
         <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1">
       <c r="A309" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B309" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
@@ -7507,15 +7575,15 @@
         <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1">
       <c r="A310" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B310" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -7527,18 +7595,18 @@
         <v>14</v>
       </c>
       <c r="H310" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1">
       <c r="A311" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B311" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C311" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
         <v>9</v>
@@ -7547,18 +7615,18 @@
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" hidden="1">
       <c r="A312" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B312" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D312" t="s">
         <v>9</v>
@@ -7571,7 +7639,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H312" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H312" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="T_KIHON_PJ_KOUMOKU_RE"/>
+        <filter val="T_KIHON_PJ_KOUMOKU_RE_LOGIC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1975CF-3D32-4A7A-A556-4B7C20CB8F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD425409-EC3B-4332-B5DB-07C0E1326981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="323">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -1027,6 +1027,74 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPORT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G3BJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1065,13 +1133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,12 +1156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,19 +1440,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H225" sqref="H225"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="26.4140625" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.4140625" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,8 +1482,17 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1">
+      <c r="J1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="2" t="s">
         <v>282</v>
       </c>
@@ -1449,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1592,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1529,7 +1612,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1609,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2132,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>268</v>
       </c>
@@ -2069,11 +2152,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C35" t="s">
@@ -2089,11 +2172,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C36" t="s">
@@ -2109,11 +2192,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C37" t="s">
@@ -2132,11 +2215,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C38" t="s">
@@ -2152,11 +2235,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C39" t="s">
@@ -2172,11 +2255,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>284</v>
       </c>
       <c r="C40" t="s">
@@ -2192,11 +2275,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C41" t="s">
@@ -2212,11 +2295,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C42" t="s">
@@ -2232,11 +2315,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="s">
@@ -2252,11 +2335,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C44" t="s">
@@ -2272,11 +2355,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C45" t="s">
@@ -2292,11 +2375,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C46" t="s">
@@ -2312,11 +2395,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C47" t="s">
@@ -2332,7 +2415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>60</v>
       </c>
@@ -2352,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -2372,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
@@ -2392,7 +2475,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
@@ -2412,7 +2495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2432,11 +2515,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C53" t="s">
@@ -2449,14 +2532,23 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C54" t="s">
@@ -2469,14 +2561,17 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C55" t="s">
@@ -2489,14 +2584,17 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C56" t="s">
@@ -2509,14 +2607,17 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C57" t="s">
@@ -2529,14 +2630,23 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C58" t="s">
@@ -2549,14 +2659,17 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C59" t="s">
@@ -2569,14 +2682,17 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C60" t="s">
@@ -2592,11 +2708,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C61" t="s">
@@ -2612,11 +2728,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C62" t="s">
@@ -2632,11 +2748,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C63" t="s">
@@ -2652,11 +2768,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C64" t="s">
@@ -2672,11 +2788,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C65" t="s">
@@ -2692,11 +2808,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C66" t="s">
@@ -2712,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
         <v>60</v>
       </c>
@@ -2732,7 +2848,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
         <v>60</v>
       </c>
@@ -2752,7 +2868,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>60</v>
       </c>
@@ -2772,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
         <v>60</v>
       </c>
@@ -2792,7 +2908,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
         <v>60</v>
       </c>
@@ -2812,11 +2928,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C72" t="s">
@@ -2829,14 +2945,17 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C73" t="s">
@@ -2849,14 +2968,17 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C74" t="s">
@@ -2869,14 +2991,17 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C75" t="s">
@@ -2889,14 +3014,17 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C76" t="s">
@@ -2909,14 +3037,17 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1">
+        <v>322</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C77" t="s">
@@ -2932,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
         <v>60</v>
       </c>
@@ -2952,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
         <v>60</v>
       </c>
@@ -2972,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
         <v>60</v>
       </c>
@@ -2992,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>60</v>
       </c>
@@ -3012,7 +3143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
@@ -3032,7 +3163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>60</v>
       </c>
@@ -3052,7 +3183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>60</v>
       </c>
@@ -3072,7 +3203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>60</v>
       </c>
@@ -3092,7 +3223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>60</v>
       </c>
@@ -3112,7 +3243,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>60</v>
       </c>
@@ -3132,7 +3263,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3152,7 +3283,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>60</v>
       </c>
@@ -3172,7 +3303,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>60</v>
       </c>
@@ -3192,7 +3323,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>60</v>
       </c>
@@ -3212,7 +3343,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>60</v>
       </c>
@@ -3232,7 +3363,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>60</v>
       </c>
@@ -3252,7 +3383,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>60</v>
       </c>
@@ -3272,7 +3403,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>60</v>
       </c>
@@ -5735,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="2" t="s">
         <v>235</v>
       </c>
@@ -5755,7 +5886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="2" t="s">
         <v>197</v>
       </c>
@@ -5775,7 +5906,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="2" t="s">
         <v>301</v>
       </c>
@@ -5795,7 +5926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" s="2" t="s">
         <v>197</v>
       </c>
@@ -5815,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="2" t="s">
         <v>301</v>
       </c>
@@ -5835,7 +5966,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="2" t="s">
         <v>197</v>
       </c>
@@ -5855,7 +5986,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="2" t="s">
         <v>197</v>
       </c>
@@ -5875,12 +6006,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B225" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
         <v>63</v>
@@ -5898,7 +6029,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" hidden="1">
       <c r="A226" s="2" t="s">
         <v>197</v>
       </c>
@@ -5918,7 +6049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" s="2" t="s">
         <v>197</v>
       </c>
@@ -5938,7 +6069,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" s="2" t="s">
         <v>197</v>
       </c>
@@ -5958,7 +6089,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" s="2" t="s">
         <v>197</v>
       </c>
@@ -5978,7 +6109,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" hidden="1">
       <c r="A230" s="2" t="s">
         <v>197</v>
       </c>
@@ -5998,7 +6129,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" s="2" t="s">
         <v>197</v>
       </c>
@@ -6018,7 +6149,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" s="2" t="s">
         <v>197</v>
       </c>
@@ -6038,7 +6169,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" s="2" t="s">
         <v>197</v>
       </c>
@@ -6058,7 +6189,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" s="2" t="s">
         <v>197</v>
       </c>
@@ -6078,7 +6209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" s="2" t="s">
         <v>197</v>
       </c>
@@ -6098,7 +6229,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" hidden="1">
       <c r="A236" s="2" t="s">
         <v>197</v>
       </c>
@@ -6118,7 +6249,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" s="2" t="s">
         <v>197</v>
       </c>
@@ -6138,7 +6269,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" s="2" t="s">
         <v>197</v>
       </c>
@@ -6158,7 +6289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" s="2" t="s">
         <v>197</v>
       </c>
@@ -6178,7 +6309,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" s="2" t="s">
         <v>197</v>
       </c>
@@ -6198,7 +6329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" s="2" t="s">
         <v>197</v>
       </c>
@@ -6218,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" hidden="1">
       <c r="A242" s="2" t="s">
         <v>197</v>
       </c>
@@ -6238,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" s="2" t="s">
         <v>236</v>
       </c>
@@ -6258,7 +6389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" hidden="1">
       <c r="A244" s="2" t="s">
         <v>203</v>
       </c>
@@ -6278,7 +6409,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" hidden="1">
       <c r="A245" s="2" t="s">
         <v>203</v>
       </c>
@@ -6298,7 +6429,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" s="2" t="s">
         <v>203</v>
       </c>
@@ -6318,7 +6449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" s="2" t="s">
         <v>203</v>
       </c>
@@ -6338,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" hidden="1">
       <c r="A248" s="2" t="s">
         <v>203</v>
       </c>
@@ -6358,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" s="2" t="s">
         <v>203</v>
       </c>
@@ -6378,7 +6509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" hidden="1">
       <c r="A250" s="2" t="s">
         <v>203</v>
       </c>
@@ -6398,7 +6529,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" s="2" t="s">
         <v>203</v>
       </c>
@@ -6418,7 +6549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" s="2" t="s">
         <v>203</v>
       </c>
@@ -6438,7 +6569,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" hidden="1">
       <c r="A253" s="2" t="s">
         <v>203</v>
       </c>
@@ -6458,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" hidden="1">
       <c r="A254" s="2" t="s">
         <v>203</v>
       </c>
@@ -7642,8 +7773,7 @@
   <autoFilter ref="A1:H312" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="T_KIHON_PJ_KOUMOKU_RE"/>
-        <filter val="T_KIHON_PJ_KOUMOKU_RE_LOGIC"/>
+        <filter val="T_KIHON_PJ_GAMEN"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD425409-EC3B-4332-B5DB-07C0E1326981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42280CCD-501A-48D2-8688-D0EDB98EF803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,799 +302,800 @@
     <t>OUTPUT_KENSAKU</t>
   </si>
   <si>
+    <t>OUTPUT_JYUN_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_PAGE_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_SIZE_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_GAMEN_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_DATA_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_KENSAKU_AOJI</t>
+  </si>
+  <si>
+    <t>OUTPUT_PRINT_AOJI</t>
+  </si>
+  <si>
+    <t>IPO_MANI_KBN</t>
+  </si>
+  <si>
+    <t>FUYOU_FLG</t>
+  </si>
+  <si>
+    <t>KEYWORD</t>
+  </si>
+  <si>
+    <t>EIKYOU_FLG</t>
+  </si>
+  <si>
+    <t>OUTPUT_FILE_CSV</t>
+  </si>
+  <si>
+    <t>HEADER_CSV</t>
+  </si>
+  <si>
+    <t>MOJI_CD_CSV</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_KB_CSV</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_CSV</t>
+  </si>
+  <si>
+    <t>OUTPUT_FILE_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>HEADER_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>MOJI_CD_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>HANTEI_RANKU</t>
+  </si>
+  <si>
+    <t>HANTEI_RIYOU</t>
+  </si>
+  <si>
+    <t>RANKU_BIKOU</t>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+  </si>
+  <si>
+    <t>LOGIN_USER_NAME</t>
+  </si>
+  <si>
+    <t>BIKOU_TRANSLATE</t>
+  </si>
+  <si>
+    <t>UNYOU_CYUUI_TRANSLATE</t>
+  </si>
+  <si>
+    <t>SAISHIN_SEKKEISGO_FLG</t>
+  </si>
+  <si>
+    <t>SAISHIN_SEKKEISHO_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN_YOUKEN</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN.SEQ</t>
+  </si>
+  <si>
+    <t>SEQ_Y</t>
+  </si>
+  <si>
+    <t>YOUKEN_NO</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>YOUKEN_SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>YOUKEN_KBN</t>
+  </si>
+  <si>
+    <t>YOUKEN_SEQ</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC</t>
+  </si>
+  <si>
+    <t>SEQ_F</t>
+  </si>
+  <si>
+    <t>AOJI</t>
+  </si>
+  <si>
+    <t>GAMEN_NO</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BUHIN_CD</t>
+  </si>
+  <si>
+    <t>BUHIN_NAME</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>KASSEI_ADD</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>KASSEI_UPD</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>KASSEI_DEL</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>KASSEI_SAN</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>KASSEI_ALL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>HISSU_CHK</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>HENKOU_KBN</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>SENI_SAKI</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>HINT_TEXT</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC</t>
+  </si>
+  <si>
+    <t>ROW_NO</t>
+  </si>
+  <si>
+    <t>COLOR_GRAY_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC_LOGIC</t>
+  </si>
+  <si>
+    <t>TORIKESHI</t>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC_TRANSLATE</t>
+  </si>
+  <si>
+    <t>COLOR_RED_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CREATE_YOUKEN_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU</t>
+  </si>
+  <si>
+    <t>SEQ_K</t>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_CD</t>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_NAME</t>
+  </si>
+  <si>
+    <t>MOJI_SYU</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>IME</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ZENKAKU_MOJI_SU</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>HANKAKU_MOJI_SU</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>SEISU_KETA</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>SYOUSU_KETA</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>HENSYUU</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>JYUUFUKU</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>DEFAULT_DISP</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>SANSYOU_SAKI</t>
+  </si>
+  <si>
+    <t>EIKYOU_SAKI</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
+  </si>
+  <si>
+    <t>SEQ_K_L</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+  </si>
+  <si>
+    <t>MOTO_GAMEN</t>
+  </si>
+  <si>
+    <t>MOTO_KOUMOKU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>FONT_SIZE</t>
+  </si>
+  <si>
+    <t>FONT_BOLD</t>
+  </si>
+  <si>
+    <t>FONT_UNDER</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+  </si>
+  <si>
+    <t>ICON_NAME</t>
+  </si>
+  <si>
+    <t>KENGEN_TYPE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>RIBBON_NAME</t>
+  </si>
+  <si>
+    <t>GAMEN_SENI_SAKI</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DAI_BUNRUI</t>
+  </si>
+  <si>
+    <t>CYU_BUNRUI</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MESSAGE</t>
+  </si>
+  <si>
+    <t>MESSAGE_CD</t>
+  </si>
+  <si>
+    <t>ALERT_MESSAGE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ALERT_SYU</t>
+  </si>
+  <si>
+    <t>ALERT_DEFAULT</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_TAB</t>
+  </si>
+  <si>
+    <t>TEIGI_BASYO</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_F_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROW_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC.SEQ_F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_CSV_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_MS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_TAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_ICHIRAN</t>
+  </si>
+  <si>
+    <t>DENSHU_KBN</t>
+  </si>
+  <si>
+    <t>HYOUJI_KBN</t>
+  </si>
+  <si>
+    <t>HISSU</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_ICHIRAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+  </si>
+  <si>
+    <t>TEIGI_KBN</t>
+  </si>
+  <si>
+    <t>HYOUJI_JYUN</t>
+  </si>
+  <si>
+    <t>SHITEI_NASHI</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPO_DENSHU_KBN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG_KOUSUU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHEET_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KASSEI_SONOTA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAPPING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAMEN_KBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDASHI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_GAMEN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_GAMEN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_BUHIN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_BUHIN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_BUHIN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_BUHIN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIKOU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN.SEQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPORT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>OUTPUT_PRINT</t>
-  </si>
-  <si>
-    <t>OUTPUT_JYUN_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_PAGE_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_SIZE_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_GAMEN_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_DATA_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_KENSAKU_AOJI</t>
-  </si>
-  <si>
-    <t>OUTPUT_PRINT_AOJI</t>
-  </si>
-  <si>
-    <t>IPO_MANI_KBN</t>
-  </si>
-  <si>
-    <t>FUYOU_FLG</t>
-  </si>
-  <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
-    <t>EIKYOU_FLG</t>
-  </si>
-  <si>
-    <t>OUTPUT_FILE_CSV</t>
-  </si>
-  <si>
-    <t>HEADER_CSV</t>
-  </si>
-  <si>
-    <t>MOJI_CD_CSV</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_KB_CSV</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_CSV</t>
-  </si>
-  <si>
-    <t>OUTPUT_FILE_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>HEADER_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>MOJI_CD_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>HANTEI_RANKU</t>
-  </si>
-  <si>
-    <t>HANTEI_RIYOU</t>
-  </si>
-  <si>
-    <t>RANKU_BIKOU</t>
-  </si>
-  <si>
-    <t>LOGIN_ID</t>
-  </si>
-  <si>
-    <t>LOGIN_USER_NAME</t>
-  </si>
-  <si>
-    <t>BIKOU_TRANSLATE</t>
-  </si>
-  <si>
-    <t>UNYOU_CYUUI_TRANSLATE</t>
-  </si>
-  <si>
-    <t>SAISHIN_SEKKEISGO_FLG</t>
-  </si>
-  <si>
-    <t>SAISHIN_SEKKEISHO_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN_YOUKEN</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN.SEQ</t>
-  </si>
-  <si>
-    <t>SEQ_Y</t>
-  </si>
-  <si>
-    <t>YOUKEN_NO</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>YOUKEN_SYSTEM_ID</t>
-  </si>
-  <si>
-    <t>YOUKEN_KBN</t>
-  </si>
-  <si>
-    <t>YOUKEN_SEQ</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC</t>
-  </si>
-  <si>
-    <t>SEQ_F</t>
-  </si>
-  <si>
-    <t>AOJI</t>
-  </si>
-  <si>
-    <t>GAMEN_NO</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>BUHIN_CD</t>
-  </si>
-  <si>
-    <t>BUHIN_NAME</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>KASSEI_ADD</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>KASSEI_UPD</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>KASSEI_DEL</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>KASSEI_SAN</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>KASSEI_ALL</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>HISSU_CHK</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>HENKOU_KBN</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>SENI_SAKI</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>HINT_TEXT</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC</t>
-  </si>
-  <si>
-    <t>ROW_NO</t>
-  </si>
-  <si>
-    <t>COLOR_GRAY_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC_LOGIC</t>
-  </si>
-  <si>
-    <t>TORIKESHI</t>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC_TRANSLATE</t>
-  </si>
-  <si>
-    <t>COLOR_RED_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_IPO</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>CREATE_YOUKEN_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU</t>
-  </si>
-  <si>
-    <t>SEQ_K</t>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_CD</t>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_NAME</t>
-  </si>
-  <si>
-    <t>MOJI_SYU</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>IME</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>ZENKAKU_MOJI_SU</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>HANKAKU_MOJI_SU</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>SEISU_KETA</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>SYOUSU_KETA</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>HENSYUU</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>JYUUFUKU</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>DEFAULT_DISP</t>
-  </si>
-  <si>
-    <t>FORMAT</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>SANSYOU_SAKI</t>
-  </si>
-  <si>
-    <t>EIKYOU_SAKI</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
-  </si>
-  <si>
-    <t>SEQ_K_L</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-  </si>
-  <si>
-    <t>MOTO_GAMEN</t>
-  </si>
-  <si>
-    <t>MOTO_KOUMOKU</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>FONT_SIZE</t>
-  </si>
-  <si>
-    <t>FONT_BOLD</t>
-  </si>
-  <si>
-    <t>FONT_UNDER</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-  </si>
-  <si>
-    <t>ICON_NAME</t>
-  </si>
-  <si>
-    <t>KENGEN_TYPE</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>RIBBON_NAME</t>
-  </si>
-  <si>
-    <t>GAMEN_SENI_SAKI</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>DAI_BUNRUI</t>
-  </si>
-  <si>
-    <t>CYU_BUNRUI</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MESSAGE</t>
-  </si>
-  <si>
-    <t>MESSAGE_CD</t>
-  </si>
-  <si>
-    <t>ALERT_MESSAGE</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ALERT_SYU</t>
-  </si>
-  <si>
-    <t>ALERT_DEFAULT</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_TAB</t>
-  </si>
-  <si>
-    <t>TEIGI_BASYO</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_F_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROW_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC.SEQ_F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_CSV_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MESSAGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_MS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_TAB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_ICHIRAN</t>
-  </si>
-  <si>
-    <t>DENSHU_KBN</t>
-  </si>
-  <si>
-    <t>HYOUJI_KBN</t>
-  </si>
-  <si>
-    <t>HISSU</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_ICHIRAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_IPO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_IPO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTO_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_HYOUJI</t>
-  </si>
-  <si>
-    <t>TEIGI_KBN</t>
-  </si>
-  <si>
-    <t>HYOUJI_JYUN</t>
-  </si>
-  <si>
-    <t>SHITEI_NASHI</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_HYOUJI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_HYOUJI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_IPO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IPO_DENSHU_KBN_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PG_KOUSUU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SHEET_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KASSEI_SONOTA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAPPING</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GAMEN_KBN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIDASHI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_GAMEN_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_GAMEN_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_BUHIN_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_BUHIN_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT_BUHIN_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT_BUHIN_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BIKOU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN.SEQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCREEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REPORT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G3BJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BJ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,8 +1443,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="18"/>
@@ -1465,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1474,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1483,13 +1484,13 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" t="s">
-        <v>309</v>
-      </c>
       <c r="L1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1">
@@ -1514,7 +1515,7 @@
     </row>
     <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1557,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1589,7 +1590,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:12" hidden="1">
@@ -1609,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1">
@@ -2129,12 +2130,12 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2197,7 +2198,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -2209,10 +2210,10 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2260,7 +2261,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2312,7 +2313,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2352,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2372,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2423,7 +2424,7 @@
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2460,19 +2461,19 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
         <v>280</v>
-      </c>
-      <c r="C50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2492,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2532,16 +2533,16 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2561,10 +2562,10 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2584,10 +2585,10 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2607,10 +2608,10 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2630,16 +2631,16 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J57" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="L57" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2659,10 +2660,10 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2670,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2682,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>321</v>
@@ -2693,7 +2694,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
         <v>53</v>
@@ -2713,7 +2714,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>53</v>
@@ -2733,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>53</v>
@@ -2753,7 +2754,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>53</v>
@@ -2773,7 +2774,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>53</v>
@@ -2793,7 +2794,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>53</v>
@@ -2813,7 +2814,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>53</v>
@@ -2833,7 +2834,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -2845,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2853,7 +2854,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -2865,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2873,7 +2874,7 @@
         <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
         <v>53</v>
@@ -2893,7 +2894,7 @@
         <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2905,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2913,7 +2914,7 @@
         <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
         <v>53</v>
@@ -2933,7 +2934,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -2945,10 +2946,10 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
+        <v>318</v>
+      </c>
+      <c r="L72" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2956,7 +2957,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -2968,10 +2969,10 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2979,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -2991,10 +2992,10 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3002,7 +3003,7 @@
         <v>60</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3014,10 +3015,10 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3025,7 +3026,7 @@
         <v>60</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3037,10 +3038,10 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3048,7 +3049,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
         <v>53</v>
@@ -3068,7 +3069,7 @@
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
         <v>53</v>
@@ -3088,7 +3089,7 @@
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
         <v>53</v>
@@ -3108,7 +3109,7 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
         <v>53</v>
@@ -3248,7 +3249,7 @@
         <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -3260,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3268,7 +3269,7 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3280,7 +3281,7 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3288,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -3300,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3308,7 +3309,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -3320,7 +3321,7 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3328,7 +3329,7 @@
         <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -3340,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3348,7 +3349,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -3360,7 +3361,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3368,7 +3369,7 @@
         <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -3380,7 +3381,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3388,7 +3389,7 @@
         <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
         <v>53</v>
@@ -3400,7 +3401,7 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3408,7 +3409,7 @@
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
         <v>53</v>
@@ -3425,7 +3426,7 @@
     </row>
     <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3445,7 +3446,7 @@
     </row>
     <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>62</v>
@@ -3460,15 +3461,15 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -3485,27 +3486,27 @@
     </row>
     <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
         <v>121</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -3520,15 +3521,15 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -3540,15 +3541,15 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>21</v>
@@ -3560,15 +3561,15 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -3580,12 +3581,12 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3605,7 +3606,7 @@
     </row>
     <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -3620,15 +3621,15 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
         <v>63</v>
@@ -3645,10 +3646,10 @@
     </row>
     <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>53</v>
@@ -3665,10 +3666,10 @@
     </row>
     <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -3680,15 +3681,15 @@
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -3705,10 +3706,10 @@
     </row>
     <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -3720,15 +3721,15 @@
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -3740,15 +3741,15 @@
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -3760,15 +3761,15 @@
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -3780,15 +3781,15 @@
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -3800,15 +3801,15 @@
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -3820,15 +3821,15 @@
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -3840,15 +3841,15 @@
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -3860,35 +3861,35 @@
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
         <v>146</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -3900,15 +3901,15 @@
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -3920,15 +3921,15 @@
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -3940,15 +3941,15 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
@@ -3965,10 +3966,10 @@
     </row>
     <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -4005,7 +4006,7 @@
     </row>
     <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
@@ -4020,15 +4021,15 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>63</v>
@@ -4040,15 +4041,15 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C127" t="s">
         <v>63</v>
@@ -4065,10 +4066,10 @@
     </row>
     <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>53</v>
@@ -4085,10 +4086,10 @@
     </row>
     <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" t="s">
         <v>155</v>
-      </c>
-      <c r="B129" t="s">
-        <v>156</v>
       </c>
       <c r="C129" t="s">
         <v>53</v>
@@ -4105,10 +4106,10 @@
     </row>
     <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -4120,15 +4121,15 @@
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -4140,15 +4141,15 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
@@ -4165,10 +4166,10 @@
     </row>
     <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -4180,15 +4181,15 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
         <v>53</v>
@@ -4205,10 +4206,10 @@
     </row>
     <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
         <v>53</v>
@@ -4225,7 +4226,7 @@
     </row>
     <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -4260,15 +4261,15 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -4285,10 +4286,10 @@
     </row>
     <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
         <v>53</v>
@@ -4300,15 +4301,15 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" t="s">
         <v>53</v>
@@ -4325,10 +4326,10 @@
     </row>
     <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -4345,10 +4346,10 @@
     </row>
     <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -4360,15 +4361,15 @@
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -4385,10 +4386,10 @@
     </row>
     <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -4400,15 +4401,15 @@
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -4420,15 +4421,15 @@
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -4445,10 +4446,10 @@
     </row>
     <row r="147" spans="1:8" hidden="1">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -4460,15 +4461,15 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -4485,10 +4486,10 @@
     </row>
     <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
@@ -4505,10 +4506,10 @@
     </row>
     <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
         <v>53</v>
@@ -4525,10 +4526,10 @@
     </row>
     <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" t="s">
         <v>53</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -4565,7 +4566,7 @@
     </row>
     <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B153" t="s">
         <v>62</v>
@@ -4580,15 +4581,15 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" t="s">
         <v>164</v>
-      </c>
-      <c r="B154" t="s">
-        <v>165</v>
       </c>
       <c r="C154" t="s">
         <v>63</v>
@@ -4605,10 +4606,10 @@
     </row>
     <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
         <v>53</v>
@@ -4625,10 +4626,10 @@
     </row>
     <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -4640,15 +4641,15 @@
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -4665,10 +4666,10 @@
     </row>
     <row r="158" spans="1:8" hidden="1">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -4680,15 +4681,15 @@
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -4703,15 +4704,15 @@
         <v>66</v>
       </c>
       <c r="H159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1">
       <c r="A160" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -4723,15 +4724,15 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -4743,35 +4744,35 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
         <v>170</v>
-      </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162">
-        <v>10</v>
-      </c>
-      <c r="E162" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
         <v>63</v>
@@ -4783,15 +4784,15 @@
         <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -4803,15 +4804,15 @@
         <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -4823,15 +4824,15 @@
         <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
         <v>21</v>
@@ -4843,15 +4844,15 @@
         <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -4863,15 +4864,15 @@
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -4883,15 +4884,15 @@
         <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -4903,15 +4904,15 @@
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
@@ -4923,35 +4924,35 @@
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B171" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
         <v>146</v>
-      </c>
-      <c r="C171" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171">
-        <v>10</v>
-      </c>
-      <c r="E171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -4963,15 +4964,15 @@
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -4983,15 +4984,15 @@
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -5003,15 +5004,15 @@
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" t="s">
         <v>53</v>
@@ -5028,10 +5029,10 @@
     </row>
     <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -5048,10 +5049,10 @@
     </row>
     <row r="177" spans="1:8" hidden="1">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C177" t="s">
         <v>53</v>
@@ -5068,10 +5069,10 @@
     </row>
     <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C178" t="s">
         <v>53</v>
@@ -5088,7 +5089,7 @@
     </row>
     <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -5108,7 +5109,7 @@
     </row>
     <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B180" t="s">
         <v>62</v>
@@ -5123,15 +5124,15 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
@@ -5143,15 +5144,15 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -5168,10 +5169,10 @@
     </row>
     <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C183" t="s">
         <v>53</v>
@@ -5188,10 +5189,10 @@
     </row>
     <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C184" t="s">
         <v>53</v>
@@ -5208,10 +5209,10 @@
     </row>
     <row r="185" spans="1:8" hidden="1">
       <c r="A185" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -5223,15 +5224,15 @@
         <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:8" hidden="1">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -5243,15 +5244,15 @@
         <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="1:8" hidden="1">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C187" t="s">
         <v>21</v>
@@ -5268,10 +5269,10 @@
     </row>
     <row r="188" spans="1:8" hidden="1">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -5283,15 +5284,15 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1">
       <c r="A189" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C189" t="s">
         <v>53</v>
@@ -5308,10 +5309,10 @@
     </row>
     <row r="190" spans="1:8" hidden="1">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C190" t="s">
         <v>53</v>
@@ -5328,7 +5329,7 @@
     </row>
     <row r="191" spans="1:8" hidden="1">
       <c r="A191" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -5348,7 +5349,7 @@
     </row>
     <row r="192" spans="1:8" hidden="1">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>62</v>
@@ -5363,15 +5364,15 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -5388,10 +5389,10 @@
     </row>
     <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C194" t="s">
         <v>53</v>
@@ -5408,10 +5409,10 @@
     </row>
     <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -5423,15 +5424,15 @@
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -5448,10 +5449,10 @@
     </row>
     <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
@@ -5463,15 +5464,15 @@
         <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
@@ -5483,15 +5484,15 @@
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -5503,15 +5504,15 @@
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:8" hidden="1">
       <c r="A200" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B200" t="s">
         <v>192</v>
-      </c>
-      <c r="B200" t="s">
-        <v>193</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -5523,15 +5524,15 @@
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -5543,15 +5544,15 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
@@ -5563,15 +5564,15 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B203" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C203" t="s">
         <v>21</v>
@@ -5588,10 +5589,10 @@
     </row>
     <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B204" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C204" t="s">
         <v>53</v>
@@ -5608,10 +5609,10 @@
     </row>
     <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C205" t="s">
         <v>53</v>
@@ -5628,7 +5629,7 @@
     </row>
     <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -5648,7 +5649,7 @@
     </row>
     <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B207" t="s">
         <v>62</v>
@@ -5663,15 +5664,15 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B208" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C208" t="s">
         <v>63</v>
@@ -5683,15 +5684,15 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:8" hidden="1">
       <c r="A209" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B209" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C209" t="s">
         <v>63</v>
@@ -5708,10 +5709,10 @@
     </row>
     <row r="210" spans="1:8" hidden="1">
       <c r="A210" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B210" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C210" t="s">
         <v>53</v>
@@ -5728,10 +5729,10 @@
     </row>
     <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B211" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C211" t="s">
         <v>53</v>
@@ -5748,10 +5749,10 @@
     </row>
     <row r="212" spans="1:8" hidden="1">
       <c r="A212" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B212" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -5763,15 +5764,15 @@
         <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B213" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -5783,15 +5784,15 @@
         <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C214" t="s">
         <v>21</v>
@@ -5808,10 +5809,10 @@
     </row>
     <row r="215" spans="1:8" hidden="1">
       <c r="A215" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B215" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -5823,15 +5824,15 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B216" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C216" t="s">
         <v>53</v>
@@ -5848,10 +5849,10 @@
     </row>
     <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B217" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C217" t="s">
         <v>53</v>
@@ -5868,7 +5869,7 @@
     </row>
     <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -5888,7 +5889,7 @@
     </row>
     <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B219" t="s">
         <v>62</v>
@@ -5903,15 +5904,15 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
         <v>63</v>
@@ -5928,10 +5929,10 @@
     </row>
     <row r="221" spans="1:8" hidden="1">
       <c r="A221" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B221" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
@@ -5948,10 +5949,10 @@
     </row>
     <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -5963,15 +5964,15 @@
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B223" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -5988,10 +5989,10 @@
     </row>
     <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B224" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -6003,15 +6004,15 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="225" spans="1:8" hidden="1">
       <c r="A225" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C225" t="s">
         <v>63</v>
@@ -6026,15 +6027,15 @@
         <v>66</v>
       </c>
       <c r="H225" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:8" hidden="1">
       <c r="A226" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B226" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -6046,15 +6047,15 @@
         <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="227" spans="1:8" hidden="1">
       <c r="A227" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -6066,15 +6067,15 @@
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228" spans="1:8" hidden="1">
       <c r="A228" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B228" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C228" t="s">
         <v>63</v>
@@ -6086,15 +6087,15 @@
         <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="229" spans="1:8" hidden="1">
       <c r="A229" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B229" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C229" t="s">
         <v>63</v>
@@ -6106,15 +6107,15 @@
         <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1">
       <c r="A230" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
@@ -6126,15 +6127,15 @@
         <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1">
       <c r="A231" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B231" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
@@ -6146,15 +6147,15 @@
         <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="232" spans="1:8" hidden="1">
       <c r="A232" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B232" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
@@ -6166,15 +6167,15 @@
         <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1">
       <c r="A233" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B233" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -6186,15 +6187,15 @@
         <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1">
       <c r="A234" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
@@ -6206,15 +6207,15 @@
         <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="1:8" hidden="1">
       <c r="A235" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -6226,15 +6227,15 @@
         <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236" spans="1:8" hidden="1">
       <c r="A236" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B236" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
@@ -6246,15 +6247,15 @@
         <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1">
       <c r="A237" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B237" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -6266,15 +6267,15 @@
         <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1">
       <c r="A238" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B238" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
@@ -6286,15 +6287,15 @@
         <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239" spans="1:8" hidden="1">
       <c r="A239" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B239" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -6306,15 +6307,15 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1">
       <c r="A240" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B240" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
@@ -6331,10 +6332,10 @@
     </row>
     <row r="241" spans="1:8" hidden="1">
       <c r="A241" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B241" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C241" t="s">
         <v>53</v>
@@ -6351,10 +6352,10 @@
     </row>
     <row r="242" spans="1:8" hidden="1">
       <c r="A242" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B242" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C242" t="s">
         <v>53</v>
@@ -6371,7 +6372,7 @@
     </row>
     <row r="243" spans="1:8" hidden="1">
       <c r="A243" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -6391,7 +6392,7 @@
     </row>
     <row r="244" spans="1:8" hidden="1">
       <c r="A244" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B244" t="s">
         <v>62</v>
@@ -6406,15 +6407,15 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:8" hidden="1">
       <c r="A245" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B245" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C245" t="s">
         <v>63</v>
@@ -6426,15 +6427,15 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:8" hidden="1">
       <c r="A246" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C246" t="s">
         <v>63</v>
@@ -6451,10 +6452,10 @@
     </row>
     <row r="247" spans="1:8" hidden="1">
       <c r="A247" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B247" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C247" t="s">
         <v>53</v>
@@ -6471,10 +6472,10 @@
     </row>
     <row r="248" spans="1:8" hidden="1">
       <c r="A248" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B248" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C248" t="s">
         <v>53</v>
@@ -6491,10 +6492,10 @@
     </row>
     <row r="249" spans="1:8" hidden="1">
       <c r="A249" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B249" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -6506,15 +6507,15 @@
         <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="250" spans="1:8" hidden="1">
       <c r="A250" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B250" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -6526,15 +6527,15 @@
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="251" spans="1:8" hidden="1">
       <c r="A251" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B251" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C251" t="s">
         <v>21</v>
@@ -6551,10 +6552,10 @@
     </row>
     <row r="252" spans="1:8" hidden="1">
       <c r="A252" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B252" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -6566,15 +6567,15 @@
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="1:8" hidden="1">
       <c r="A253" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B253" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C253" t="s">
         <v>53</v>
@@ -6591,10 +6592,10 @@
     </row>
     <row r="254" spans="1:8" hidden="1">
       <c r="A254" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C254" t="s">
         <v>53</v>
@@ -6611,7 +6612,7 @@
     </row>
     <row r="255" spans="1:8" hidden="1">
       <c r="A255" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -6631,7 +6632,7 @@
     </row>
     <row r="256" spans="1:8" hidden="1">
       <c r="A256" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B256" t="s">
         <v>62</v>
@@ -6646,15 +6647,15 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="257" spans="1:8" hidden="1">
       <c r="A257" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" t="s">
         <v>63</v>
@@ -6671,10 +6672,10 @@
     </row>
     <row r="258" spans="1:8" hidden="1">
       <c r="A258" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B258" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C258" t="s">
         <v>53</v>
@@ -6691,10 +6692,10 @@
     </row>
     <row r="259" spans="1:8" hidden="1">
       <c r="A259" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B259" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -6706,15 +6707,15 @@
         <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="260" spans="1:8" hidden="1">
       <c r="A260" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B260" t="s">
         <v>204</v>
-      </c>
-      <c r="B260" t="s">
-        <v>205</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -6726,15 +6727,15 @@
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="261" spans="1:8" hidden="1">
       <c r="A261" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -6746,15 +6747,15 @@
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262" spans="1:8" hidden="1">
       <c r="A262" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B262" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -6766,15 +6767,15 @@
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1">
       <c r="A263" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B263" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -6786,15 +6787,15 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="264" spans="1:8" hidden="1">
       <c r="A264" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B264" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -6806,15 +6807,15 @@
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" spans="1:8" hidden="1">
       <c r="A265" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B265" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -6826,15 +6827,15 @@
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1">
       <c r="A266" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B266" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -6846,15 +6847,15 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="267" spans="1:8" hidden="1">
       <c r="A267" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B267" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C267" t="s">
         <v>21</v>
@@ -6871,10 +6872,10 @@
     </row>
     <row r="268" spans="1:8" hidden="1">
       <c r="A268" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B268" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C268" t="s">
         <v>53</v>
@@ -6891,10 +6892,10 @@
     </row>
     <row r="269" spans="1:8" hidden="1">
       <c r="A269" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B269" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C269" t="s">
         <v>53</v>
@@ -6911,7 +6912,7 @@
     </row>
     <row r="270" spans="1:8" hidden="1">
       <c r="A270" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6931,7 +6932,7 @@
     </row>
     <row r="271" spans="1:8" hidden="1">
       <c r="A271" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B271" t="s">
         <v>62</v>
@@ -6946,15 +6947,15 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="272" spans="1:8" hidden="1">
       <c r="A272" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B272" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C272" t="s">
         <v>63</v>
@@ -6971,10 +6972,10 @@
     </row>
     <row r="273" spans="1:8" hidden="1">
       <c r="A273" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B273" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C273" t="s">
         <v>53</v>
@@ -6991,10 +6992,10 @@
     </row>
     <row r="274" spans="1:8" hidden="1">
       <c r="A274" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B274" t="s">
         <v>216</v>
-      </c>
-      <c r="B274" t="s">
-        <v>217</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -7006,15 +7007,15 @@
         <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="275" spans="1:8" hidden="1">
       <c r="A275" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B275" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -7026,15 +7027,15 @@
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="276" spans="1:8" hidden="1">
       <c r="A276" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B276" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -7046,15 +7047,15 @@
         <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1">
       <c r="A277" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B277" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -7066,12 +7067,12 @@
         <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="278" spans="1:8" hidden="1">
       <c r="A278" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B278" t="s">
         <v>40</v>
@@ -7086,15 +7087,15 @@
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279" spans="1:8" hidden="1">
       <c r="A279" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B279" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C279" t="s">
         <v>21</v>
@@ -7111,10 +7112,10 @@
     </row>
     <row r="280" spans="1:8" hidden="1">
       <c r="A280" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B280" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C280" t="s">
         <v>53</v>
@@ -7131,7 +7132,7 @@
     </row>
     <row r="281" spans="1:8" hidden="1">
       <c r="A281" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -7151,7 +7152,7 @@
     </row>
     <row r="282" spans="1:8" hidden="1">
       <c r="A282" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B282" t="s">
         <v>62</v>
@@ -7166,15 +7167,15 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1">
       <c r="A283" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B283" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C283" t="s">
         <v>63</v>
@@ -7191,10 +7192,10 @@
     </row>
     <row r="284" spans="1:8" hidden="1">
       <c r="A284" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B284" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C284" t="s">
         <v>53</v>
@@ -7211,10 +7212,10 @@
     </row>
     <row r="285" spans="1:8" hidden="1">
       <c r="A285" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B285" t="s">
         <v>222</v>
-      </c>
-      <c r="B285" t="s">
-        <v>223</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
@@ -7226,12 +7227,12 @@
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="286" spans="1:8" hidden="1">
       <c r="A286" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B286" t="s">
         <v>75</v>
@@ -7246,15 +7247,15 @@
         <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="287" spans="1:8" hidden="1">
       <c r="A287" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B287" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C287" t="s">
         <v>21</v>
@@ -7271,10 +7272,10 @@
     </row>
     <row r="288" spans="1:8" hidden="1">
       <c r="A288" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B288" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C288" t="s">
         <v>53</v>
@@ -7291,7 +7292,7 @@
     </row>
     <row r="289" spans="1:8" hidden="1">
       <c r="A289" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -7311,7 +7312,7 @@
     </row>
     <row r="290" spans="1:8" hidden="1">
       <c r="A290" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B290" t="s">
         <v>62</v>
@@ -7326,15 +7327,15 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="291" spans="1:8" hidden="1">
       <c r="A291" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B291" t="s">
         <v>247</v>
-      </c>
-      <c r="B291" t="s">
-        <v>248</v>
       </c>
       <c r="C291" t="s">
         <v>63</v>
@@ -7346,15 +7347,15 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="292" spans="1:8" hidden="1">
       <c r="A292" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B292" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C292" t="s">
         <v>53</v>
@@ -7371,10 +7372,10 @@
     </row>
     <row r="293" spans="1:8" hidden="1">
       <c r="A293" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B293" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -7386,15 +7387,15 @@
         <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="294" spans="1:8" hidden="1">
       <c r="A294" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B294" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
@@ -7411,10 +7412,10 @@
     </row>
     <row r="295" spans="1:8" hidden="1">
       <c r="A295" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B295" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -7426,15 +7427,15 @@
         <v>14</v>
       </c>
       <c r="H295" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="296" spans="1:8" hidden="1">
       <c r="A296" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B296" t="s">
         <v>243</v>
-      </c>
-      <c r="B296" t="s">
-        <v>244</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -7446,15 +7447,15 @@
         <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="297" spans="1:8" hidden="1">
       <c r="A297" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B297" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -7466,15 +7467,15 @@
         <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="298" spans="1:8" hidden="1">
       <c r="A298" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B298" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C298" t="s">
         <v>13</v>
@@ -7486,15 +7487,15 @@
         <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="299" spans="1:8" hidden="1">
       <c r="A299" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B299" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C299" t="s">
         <v>13</v>
@@ -7506,15 +7507,15 @@
         <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="300" spans="1:8" hidden="1">
       <c r="A300" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B300" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
@@ -7526,12 +7527,12 @@
         <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1">
       <c r="A301" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B301" t="s">
         <v>40</v>
@@ -7546,15 +7547,15 @@
         <v>14</v>
       </c>
       <c r="H301" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="302" spans="1:8" hidden="1">
       <c r="A302" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B302" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C302" t="s">
         <v>21</v>
@@ -7571,10 +7572,10 @@
     </row>
     <row r="303" spans="1:8" hidden="1">
       <c r="A303" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B303" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C303" t="s">
         <v>53</v>
@@ -7591,7 +7592,7 @@
     </row>
     <row r="304" spans="1:8" hidden="1">
       <c r="A304" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -7611,7 +7612,7 @@
     </row>
     <row r="305" spans="1:8" hidden="1">
       <c r="A305" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B305" t="s">
         <v>62</v>
@@ -7626,15 +7627,15 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="306" spans="1:8" hidden="1">
       <c r="A306" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B306" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C306" t="s">
         <v>63</v>
@@ -7646,15 +7647,15 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="307" spans="1:8" hidden="1">
       <c r="A307" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B307" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C307" t="s">
         <v>53</v>
@@ -7671,10 +7672,10 @@
     </row>
     <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B308" t="s">
         <v>260</v>
-      </c>
-      <c r="B308" t="s">
-        <v>261</v>
       </c>
       <c r="C308" t="s">
         <v>13</v>
@@ -7686,15 +7687,15 @@
         <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="309" spans="1:8" hidden="1">
       <c r="A309" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B309" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
@@ -7706,15 +7707,15 @@
         <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="310" spans="1:8" hidden="1">
       <c r="A310" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B310" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -7726,15 +7727,15 @@
         <v>14</v>
       </c>
       <c r="H310" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1">
       <c r="A311" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B311" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C311" t="s">
         <v>21</v>
@@ -7746,15 +7747,15 @@
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="312" spans="1:8" hidden="1">
       <c r="A312" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B312" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C312" t="s">
         <v>53</v>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8. Private\Tool\demowinformapp\demowinformapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42280CCD-501A-48D2-8688-D0EDB98EF803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCD888-65F4-4A44-A272-F8A047E34123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,758 +344,760 @@
     <t>MOJI_CD_CSV</t>
   </si>
   <si>
+    <t>OUTPUT_FILE_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>HEADER_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>MOJI_CD_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_CSV_AOJI</t>
+  </si>
+  <si>
+    <t>HANTEI_RANKU</t>
+  </si>
+  <si>
+    <t>HANTEI_RIYOU</t>
+  </si>
+  <si>
+    <t>RANKU_BIKOU</t>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+  </si>
+  <si>
+    <t>LOGIN_USER_NAME</t>
+  </si>
+  <si>
+    <t>BIKOU_TRANSLATE</t>
+  </si>
+  <si>
+    <t>UNYOU_CYUUI_TRANSLATE</t>
+  </si>
+  <si>
+    <t>SAISHIN_SEKKEISGO_FLG</t>
+  </si>
+  <si>
+    <t>SAISHIN_SEKKEISHO_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN_YOUKEN</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN.SEQ</t>
+  </si>
+  <si>
+    <t>SEQ_Y</t>
+  </si>
+  <si>
+    <t>YOUKEN_NO</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>YOUKEN_SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>YOUKEN_KBN</t>
+  </si>
+  <si>
+    <t>YOUKEN_SEQ</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC</t>
+  </si>
+  <si>
+    <t>SEQ_F</t>
+  </si>
+  <si>
+    <t>AOJI</t>
+  </si>
+  <si>
+    <t>GAMEN_NO</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BUHIN_CD</t>
+  </si>
+  <si>
+    <t>BUHIN_NAME</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>KASSEI_ADD</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>KASSEI_UPD</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>KASSEI_DEL</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>KASSEI_SAN</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>KASSEI_ALL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>HISSU_CHK</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>HENKOU_KBN</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>SENI_SAKI</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>HINT_TEXT</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC</t>
+  </si>
+  <si>
+    <t>ROW_NO</t>
+  </si>
+  <si>
+    <t>COLOR_GRAY_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC_LOGIC</t>
+  </si>
+  <si>
+    <t>TORIKESHI</t>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC_TRANSLATE</t>
+  </si>
+  <si>
+    <t>COLOR_RED_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CREATE_YOUKEN_FLG</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU</t>
+  </si>
+  <si>
+    <t>SEQ_K</t>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_CD</t>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_NAME</t>
+  </si>
+  <si>
+    <t>MOJI_SYU</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>IME</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ZENKAKU_MOJI_SU</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>HANKAKU_MOJI_SU</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>SEISU_KETA</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>SYOUSU_KETA</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>HENSYUU</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>JYUUFUKU</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>DEFAULT_DISP</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>SANSYOU_SAKI</t>
+  </si>
+  <si>
+    <t>EIKYOU_SAKI</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
+  </si>
+  <si>
+    <t>SEQ_K_L</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+  </si>
+  <si>
+    <t>MOTO_GAMEN</t>
+  </si>
+  <si>
+    <t>MOTO_KOUMOKU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>FONT_SIZE</t>
+  </si>
+  <si>
+    <t>FONT_BOLD</t>
+  </si>
+  <si>
+    <t>FONT_UNDER</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+  </si>
+  <si>
+    <t>ICON_NAME</t>
+  </si>
+  <si>
+    <t>KENGEN_TYPE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>RIBBON_NAME</t>
+  </si>
+  <si>
+    <t>GAMEN_SENI_SAKI</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DAI_BUNRUI</t>
+  </si>
+  <si>
+    <t>CYU_BUNRUI</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MESSAGE</t>
+  </si>
+  <si>
+    <t>MESSAGE_CD</t>
+  </si>
+  <si>
+    <t>ALERT_MESSAGE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ALERT_SYU</t>
+  </si>
+  <si>
+    <t>ALERT_DEFAULT</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_TAB</t>
+  </si>
+  <si>
+    <t>TEIGI_BASYO</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_F_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROW_NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_FUNC.SEQ_F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_CSV_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE_L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_MS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_TAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_ICHIRAN</t>
+  </si>
+  <si>
+    <t>DENSHU_KBN</t>
+  </si>
+  <si>
+    <t>HYOUJI_KBN</t>
+  </si>
+  <si>
+    <t>HISSU</t>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_ICHIRAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+  </si>
+  <si>
+    <t>TEIGI_KBN</t>
+  </si>
+  <si>
+    <t>HYOUJI_JYUN</t>
+  </si>
+  <si>
+    <t>SHITEI_NASHI</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_HYOUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_IPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPO_DENSHU_KBN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG_KOUSUU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHEET_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KASSEI_SONOTA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAPPING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAMEN_KBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDASHI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOUKEN_LOGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_GAMEN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_GAMEN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_BUHIN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_BUHIN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_BUHIN_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_BUHIN_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIKOU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_GAMEN.SEQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUMOKU_SYURUI_CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REPORT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUTPUT_PRINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BJ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KUGIRI_MOJI_CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>KUGIRI_MOJI_KB_CSV</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_CSV</t>
-  </si>
-  <si>
-    <t>OUTPUT_FILE_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>HEADER_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>MOJI_CD_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>KUGIRI_MOJI_CSV_AOJI</t>
-  </si>
-  <si>
-    <t>HANTEI_RANKU</t>
-  </si>
-  <si>
-    <t>HANTEI_RIYOU</t>
-  </si>
-  <si>
-    <t>RANKU_BIKOU</t>
-  </si>
-  <si>
-    <t>LOGIN_ID</t>
-  </si>
-  <si>
-    <t>LOGIN_USER_NAME</t>
-  </si>
-  <si>
-    <t>BIKOU_TRANSLATE</t>
-  </si>
-  <si>
-    <t>UNYOU_CYUUI_TRANSLATE</t>
-  </si>
-  <si>
-    <t>SAISHIN_SEKKEISGO_FLG</t>
-  </si>
-  <si>
-    <t>SAISHIN_SEKKEISHO_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN_YOUKEN</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN.SEQ</t>
-  </si>
-  <si>
-    <t>SEQ_Y</t>
-  </si>
-  <si>
-    <t>YOUKEN_NO</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>YOUKEN_SYSTEM_ID</t>
-  </si>
-  <si>
-    <t>YOUKEN_KBN</t>
-  </si>
-  <si>
-    <t>YOUKEN_SEQ</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC</t>
-  </si>
-  <si>
-    <t>SEQ_F</t>
-  </si>
-  <si>
-    <t>AOJI</t>
-  </si>
-  <si>
-    <t>GAMEN_NO</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>BUHIN_CD</t>
-  </si>
-  <si>
-    <t>BUHIN_NAME</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>KASSEI_ADD</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>KASSEI_UPD</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>KASSEI_DEL</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>KASSEI_SAN</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>KASSEI_ALL</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>HISSU_CHK</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>HENKOU_KBN</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>SENI_SAKI</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>HINT_TEXT</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC</t>
-  </si>
-  <si>
-    <t>ROW_NO</t>
-  </si>
-  <si>
-    <t>COLOR_GRAY_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC_LOGIC</t>
-  </si>
-  <si>
-    <t>TORIKESHI</t>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC_TRANSLATE</t>
-  </si>
-  <si>
-    <t>COLOR_RED_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_IPO</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>CREATE_YOUKEN_FLG</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU</t>
-  </si>
-  <si>
-    <t>SEQ_K</t>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_CD</t>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_NAME</t>
-  </si>
-  <si>
-    <t>MOJI_SYU</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>IME</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>ZENKAKU_MOJI_SU</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>HANKAKU_MOJI_SU</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>SEISU_KETA</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>SYOUSU_KETA</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>HENSYUU</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>JYUUFUKU</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>DEFAULT_DISP</t>
-  </si>
-  <si>
-    <t>FORMAT</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>SANSYOU_SAKI</t>
-  </si>
-  <si>
-    <t>EIKYOU_SAKI</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU.SEQ_K</t>
-  </si>
-  <si>
-    <t>SEQ_K_L</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-  </si>
-  <si>
-    <t>MOTO_GAMEN</t>
-  </si>
-  <si>
-    <t>MOTO_KOUMOKU</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>FONT_SIZE</t>
-  </si>
-  <si>
-    <t>FONT_BOLD</t>
-  </si>
-  <si>
-    <t>FONT_UNDER</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-  </si>
-  <si>
-    <t>ICON_NAME</t>
-  </si>
-  <si>
-    <t>KENGEN_TYPE</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>RIBBON_NAME</t>
-  </si>
-  <si>
-    <t>GAMEN_SENI_SAKI</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>DAI_BUNRUI</t>
-  </si>
-  <si>
-    <t>CYU_BUNRUI</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MESSAGE</t>
-  </si>
-  <si>
-    <t>MESSAGE_CD</t>
-  </si>
-  <si>
-    <t>ALERT_MESSAGE</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ALERT_SYU</t>
-  </si>
-  <si>
-    <t>ALERT_DEFAULT</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_TAB</t>
-  </si>
-  <si>
-    <t>TEIGI_BASYO</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_F_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROW_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_FUNC.SEQ_F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_CSV_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV.SEQ_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE_L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MESSAGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_MS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_TAB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_ICHIRAN</t>
-  </si>
-  <si>
-    <t>DENSHU_KBN</t>
-  </si>
-  <si>
-    <t>HYOUJI_KBN</t>
-  </si>
-  <si>
-    <t>HISSU</t>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_ICHIRAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_IPO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_IPO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTO_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_HYOUJI</t>
-  </si>
-  <si>
-    <t>TEIGI_KBN</t>
-  </si>
-  <si>
-    <t>HYOUJI_JYUN</t>
-  </si>
-  <si>
-    <t>SHITEI_NASHI</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_HYOUJI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_HYOUJI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_IPO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_MENU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IPO_DENSHU_KBN_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PG_KOUSUU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SHEET_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KASSEI_SONOTA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAPPING</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GAMEN_KBN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIDASHI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YOUKEN_LOGIC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_GAMEN_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_GAMEN_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_BUHIN_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN_BUHIN_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT_BUHIN_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT_BUHIN_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BIKOU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_GAMEN.SEQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_KIHON_PJ_KOUMOKU_RE.SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KOUMOKU_SYURUI_CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCREEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REPORT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUTPUT_PRINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BJ2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1444,7 +1446,7 @@
   <dimension ref="A1:L312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="18"/>
@@ -1466,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1475,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1484,13 +1486,13 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1">
@@ -1515,7 +1517,7 @@
     </row>
     <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1558,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1590,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:12" hidden="1">
@@ -1610,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1">
@@ -2130,12 +2132,12 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2198,7 +2200,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -2210,10 +2212,10 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
         <v>287</v>
-      </c>
-      <c r="G37" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2261,7 +2263,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2313,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2353,7 +2355,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2373,7 +2375,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2424,7 +2426,7 @@
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2461,10 +2463,10 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2473,7 +2475,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2493,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2533,16 +2535,16 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
+        <v>316</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="K53" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2562,10 +2564,10 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2585,10 +2587,10 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2608,10 +2610,10 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2631,16 +2633,16 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2660,10 +2662,10 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2671,7 +2673,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2683,10 +2685,10 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2834,7 +2836,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -2846,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2866,7 +2868,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2906,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2946,10 +2948,10 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2969,10 +2971,10 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2992,10 +2994,10 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3003,7 +3005,7 @@
         <v>60</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3015,10 +3017,10 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3026,7 +3028,7 @@
         <v>60</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3038,10 +3040,10 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3049,7 +3051,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
         <v>53</v>
@@ -3069,7 +3071,7 @@
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
         <v>53</v>
@@ -3089,7 +3091,7 @@
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
         <v>53</v>
@@ -3109,7 +3111,7 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
         <v>53</v>
@@ -3249,7 +3251,7 @@
         <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -3261,7 +3263,7 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3269,7 +3271,7 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3281,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3289,7 +3291,7 @@
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -3301,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3309,7 +3311,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -3321,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3329,7 +3331,7 @@
         <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -3341,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3349,7 +3351,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -3361,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3369,7 +3371,7 @@
         <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -3381,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3389,7 +3391,7 @@
         <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
         <v>53</v>
@@ -3401,7 +3403,7 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3409,7 +3411,7 @@
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
         <v>53</v>
@@ -3426,7 +3428,7 @@
     </row>
     <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3446,7 +3448,7 @@
     </row>
     <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
         <v>62</v>
@@ -3461,15 +3463,15 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
         <v>117</v>
-      </c>
-      <c r="B98" t="s">
-        <v>119</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -3486,10 +3488,10 @@
     </row>
     <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -3501,12 +3503,12 @@
         <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -3521,15 +3523,15 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -3541,15 +3543,15 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
         <v>21</v>
@@ -3561,15 +3563,15 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -3581,12 +3583,12 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3606,7 +3608,7 @@
     </row>
     <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -3621,15 +3623,15 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
         <v>63</v>
@@ -3646,10 +3648,10 @@
     </row>
     <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
         <v>125</v>
-      </c>
-      <c r="B107" t="s">
-        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>53</v>
@@ -3666,10 +3668,10 @@
     </row>
     <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -3681,15 +3683,15 @@
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -3706,10 +3708,10 @@
     </row>
     <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -3721,15 +3723,15 @@
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -3741,15 +3743,15 @@
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -3761,15 +3763,15 @@
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -3781,15 +3783,15 @@
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -3801,15 +3803,15 @@
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -3821,15 +3823,15 @@
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -3841,15 +3843,15 @@
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -3861,15 +3863,15 @@
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -3881,15 +3883,15 @@
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -3901,15 +3903,15 @@
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -3921,15 +3923,15 @@
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -3941,15 +3943,15 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
@@ -3966,10 +3968,10 @@
     </row>
     <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
@@ -3986,7 +3988,7 @@
     </row>
     <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -4006,7 +4008,7 @@
     </row>
     <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
@@ -4021,15 +4023,15 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
         <v>63</v>
@@ -4041,15 +4043,15 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C127" t="s">
         <v>63</v>
@@ -4066,10 +4068,10 @@
     </row>
     <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
         <v>53</v>
@@ -4086,10 +4088,10 @@
     </row>
     <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
         <v>53</v>
@@ -4106,10 +4108,10 @@
     </row>
     <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -4121,15 +4123,15 @@
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -4141,15 +4143,15 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
@@ -4166,10 +4168,10 @@
     </row>
     <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" t="s">
         <v>154</v>
-      </c>
-      <c r="B133" t="s">
-        <v>156</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -4181,15 +4183,15 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
         <v>53</v>
@@ -4206,10 +4208,10 @@
     </row>
     <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C135" t="s">
         <v>53</v>
@@ -4226,7 +4228,7 @@
     </row>
     <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -4246,7 +4248,7 @@
     </row>
     <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -4261,15 +4263,15 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -4286,10 +4288,10 @@
     </row>
     <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B139" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
         <v>53</v>
@@ -4301,15 +4303,15 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
         <v>53</v>
@@ -4326,10 +4328,10 @@
     </row>
     <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -4346,10 +4348,10 @@
     </row>
     <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -4361,15 +4363,15 @@
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B143" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -4386,10 +4388,10 @@
     </row>
     <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -4401,15 +4403,15 @@
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1">
       <c r="A145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s">
         <v>158</v>
-      </c>
-      <c r="B145" t="s">
-        <v>160</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -4421,15 +4423,15 @@
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -4446,10 +4448,10 @@
     </row>
     <row r="147" spans="1:8" hidden="1">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -4461,15 +4463,15 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -4486,10 +4488,10 @@
     </row>
     <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
@@ -4506,10 +4508,10 @@
     </row>
     <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
         <v>53</v>
@@ -4526,10 +4528,10 @@
     </row>
     <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C151" t="s">
         <v>53</v>
@@ -4546,7 +4548,7 @@
     </row>
     <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -4566,7 +4568,7 @@
     </row>
     <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
         <v>62</v>
@@ -4581,15 +4583,15 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C154" t="s">
         <v>63</v>
@@ -4606,10 +4608,10 @@
     </row>
     <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
         <v>53</v>
@@ -4626,10 +4628,10 @@
     </row>
     <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -4641,15 +4643,15 @@
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -4666,10 +4668,10 @@
     </row>
     <row r="158" spans="1:8" hidden="1">
       <c r="A158" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -4681,15 +4683,15 @@
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
         <v>163</v>
-      </c>
-      <c r="B159" t="s">
-        <v>165</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -4704,15 +4706,15 @@
         <v>66</v>
       </c>
       <c r="H159" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -4724,15 +4726,15 @@
         <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -4744,15 +4746,15 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
@@ -4764,15 +4766,15 @@
         <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
         <v>63</v>
@@ -4784,15 +4786,15 @@
         <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -4804,15 +4806,15 @@
         <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -4824,15 +4826,15 @@
         <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
         <v>21</v>
@@ -4844,15 +4846,15 @@
         <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -4864,15 +4866,15 @@
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B168" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -4884,15 +4886,15 @@
         <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -4904,15 +4906,15 @@
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
@@ -4924,15 +4926,15 @@
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B171" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
@@ -4944,15 +4946,15 @@
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -4964,15 +4966,15 @@
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -4984,15 +4986,15 @@
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -5004,15 +5006,15 @@
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C175" t="s">
         <v>53</v>
@@ -5029,10 +5031,10 @@
     </row>
     <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B176" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -5049,10 +5051,10 @@
     </row>
     <row r="177" spans="1:8" hidden="1">
       <c r="A177" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C177" t="s">
         <v>53</v>
@@ -5069,10 +5071,10 @@
     </row>
     <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C178" t="s">
         <v>53</v>
@@ -5089,7 +5091,7 @@
     </row>
     <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -5109,7 +5111,7 @@
     </row>
     <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
         <v>62</v>
@@ -5124,15 +5126,15 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
@@ -5144,15 +5146,15 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" t="s">
         <v>188</v>
-      </c>
-      <c r="B182" t="s">
-        <v>190</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -5169,10 +5171,10 @@
     </row>
     <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C183" t="s">
         <v>53</v>
@@ -5189,10 +5191,10 @@
     </row>
     <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C184" t="s">
         <v>53</v>
@@ -5209,10 +5211,10 @@
     </row>
     <row r="185" spans="1:8" hidden="1">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -5224,15 +5226,15 @@
         <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:8" hidden="1">
       <c r="A186" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -5244,15 +5246,15 @@
         <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" spans="1:8" hidden="1">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C187" t="s">
         <v>21</v>
@@ -5269,10 +5271,10 @@
     </row>
     <row r="188" spans="1:8" hidden="1">
       <c r="A188" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -5284,15 +5286,15 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C189" t="s">
         <v>53</v>
@@ -5309,10 +5311,10 @@
     </row>
     <row r="190" spans="1:8" hidden="1">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C190" t="s">
         <v>53</v>
@@ -5329,7 +5331,7 @@
     </row>
     <row r="191" spans="1:8" hidden="1">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -5349,7 +5351,7 @@
     </row>
     <row r="192" spans="1:8" hidden="1">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
         <v>62</v>
@@ -5364,15 +5366,15 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -5389,10 +5391,10 @@
     </row>
     <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C194" t="s">
         <v>53</v>
@@ -5409,10 +5411,10 @@
     </row>
     <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B195" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -5424,15 +5426,15 @@
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B196" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -5449,10 +5451,10 @@
     </row>
     <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B197" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
@@ -5464,15 +5466,15 @@
         <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
@@ -5484,15 +5486,15 @@
         <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B199" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -5504,15 +5506,15 @@
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="200" spans="1:8" hidden="1">
       <c r="A200" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -5524,15 +5526,15 @@
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B201" t="s">
         <v>191</v>
-      </c>
-      <c r="B201" t="s">
-        <v>193</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -5544,15 +5546,15 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B202" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
@@ -5564,15 +5566,15 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C203" t="s">
         <v>21</v>
@@ -5589,10 +5591,10 @@
     </row>
     <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B204" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C204" t="s">
         <v>53</v>
@@ -5609,10 +5611,10 @@
     </row>
     <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C205" t="s">
         <v>53</v>
@@ -5629,7 +5631,7 @@
     </row>
     <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -5649,7 +5651,7 @@
     </row>
     <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B207" t="s">
         <v>62</v>
@@ -5664,15 +5666,15 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B208" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C208" t="s">
         <v>63</v>
@@ -5684,15 +5686,15 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8" hidden="1">
       <c r="A209" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B209" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C209" t="s">
         <v>63</v>
@@ -5709,10 +5711,10 @@
     </row>
     <row r="210" spans="1:8" hidden="1">
       <c r="A210" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C210" t="s">
         <v>53</v>
@@ -5729,10 +5731,10 @@
     </row>
     <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B211" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C211" t="s">
         <v>53</v>
@@ -5749,10 +5751,10 @@
     </row>
     <row r="212" spans="1:8" hidden="1">
       <c r="A212" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B212" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -5764,15 +5766,15 @@
         <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B213" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -5784,15 +5786,15 @@
         <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B214" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C214" t="s">
         <v>21</v>
@@ -5809,10 +5811,10 @@
     </row>
     <row r="215" spans="1:8" hidden="1">
       <c r="A215" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B215" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -5824,15 +5826,15 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B216" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C216" t="s">
         <v>53</v>
@@ -5849,10 +5851,10 @@
     </row>
     <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B217" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C217" t="s">
         <v>53</v>
@@ -5869,7 +5871,7 @@
     </row>
     <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -5889,7 +5891,7 @@
     </row>
     <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B219" t="s">
         <v>62</v>
@@ -5904,15 +5906,15 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B220" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C220" t="s">
         <v>63</v>
@@ -5929,10 +5931,10 @@
     </row>
     <row r="221" spans="1:8" hidden="1">
       <c r="A221" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B221" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
@@ -5949,10 +5951,10 @@
     </row>
     <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -5964,15 +5966,15 @@
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B223" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -5989,10 +5991,10 @@
     </row>
     <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B224" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -6004,15 +6006,15 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:8" hidden="1">
       <c r="A225" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B225" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C225" t="s">
         <v>63</v>
@@ -6027,15 +6029,15 @@
         <v>66</v>
       </c>
       <c r="H225" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:8" hidden="1">
       <c r="A226" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B226" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -6047,15 +6049,15 @@
         <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="227" spans="1:8" hidden="1">
       <c r="A227" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B227" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -6067,15 +6069,15 @@
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:8" hidden="1">
       <c r="A228" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B228" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C228" t="s">
         <v>63</v>
@@ -6087,15 +6089,15 @@
         <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="229" spans="1:8" hidden="1">
       <c r="A229" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B229" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C229" t="s">
         <v>63</v>
@@ -6107,15 +6109,15 @@
         <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1">
       <c r="A230" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
@@ -6127,15 +6129,15 @@
         <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1">
       <c r="A231" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B231" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
@@ -6147,15 +6149,15 @@
         <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="232" spans="1:8" hidden="1">
       <c r="A232" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B232" t="s">
         <v>196</v>
-      </c>
-      <c r="B232" t="s">
-        <v>198</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
@@ -6167,15 +6169,15 @@
         <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1">
       <c r="A233" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B233" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -6187,15 +6189,15 @@
         <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1">
       <c r="A234" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B234" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
@@ -6207,15 +6209,15 @@
         <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="235" spans="1:8" hidden="1">
       <c r="A235" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B235" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -6227,15 +6229,15 @@
         <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236" spans="1:8" hidden="1">
       <c r="A236" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B236" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
@@ -6247,15 +6249,15 @@
         <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1">
       <c r="A237" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B237" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -6267,15 +6269,15 @@
         <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1">
       <c r="A238" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B238" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
@@ -6287,15 +6289,15 @@
         <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:8" hidden="1">
       <c r="A239" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B239" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -6307,15 +6309,15 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1">
       <c r="A240" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B240" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
@@ -6332,10 +6334,10 @@
     </row>
     <row r="241" spans="1:8" hidden="1">
       <c r="A241" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B241" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C241" t="s">
         <v>53</v>
@@ -6352,10 +6354,10 @@
     </row>
     <row r="242" spans="1:8" hidden="1">
       <c r="A242" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B242" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C242" t="s">
         <v>53</v>
@@ -6372,7 +6374,7 @@
     </row>
     <row r="243" spans="1:8" hidden="1">
       <c r="A243" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -6392,7 +6394,7 @@
     </row>
     <row r="244" spans="1:8" hidden="1">
       <c r="A244" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B244" t="s">
         <v>62</v>
@@ -6407,15 +6409,15 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="245" spans="1:8" hidden="1">
       <c r="A245" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B245" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C245" t="s">
         <v>63</v>
@@ -6427,15 +6429,15 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="246" spans="1:8" hidden="1">
       <c r="A246" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B246" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C246" t="s">
         <v>63</v>
@@ -6452,10 +6454,10 @@
     </row>
     <row r="247" spans="1:8" hidden="1">
       <c r="A247" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C247" t="s">
         <v>53</v>
@@ -6472,10 +6474,10 @@
     </row>
     <row r="248" spans="1:8" hidden="1">
       <c r="A248" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B248" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C248" t="s">
         <v>53</v>
@@ -6492,10 +6494,10 @@
     </row>
     <row r="249" spans="1:8" hidden="1">
       <c r="A249" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B249" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -6507,15 +6509,15 @@
         <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="250" spans="1:8" hidden="1">
       <c r="A250" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B250" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -6527,15 +6529,15 @@
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" spans="1:8" hidden="1">
       <c r="A251" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B251" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C251" t="s">
         <v>21</v>
@@ -6552,10 +6554,10 @@
     </row>
     <row r="252" spans="1:8" hidden="1">
       <c r="A252" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B252" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -6567,15 +6569,15 @@
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:8" hidden="1">
       <c r="A253" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B253" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C253" t="s">
         <v>53</v>
@@ -6592,10 +6594,10 @@
     </row>
     <row r="254" spans="1:8" hidden="1">
       <c r="A254" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B254" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C254" t="s">
         <v>53</v>
@@ -6612,7 +6614,7 @@
     </row>
     <row r="255" spans="1:8" hidden="1">
       <c r="A255" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -6632,7 +6634,7 @@
     </row>
     <row r="256" spans="1:8" hidden="1">
       <c r="A256" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B256" t="s">
         <v>62</v>
@@ -6647,15 +6649,15 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="257" spans="1:8" hidden="1">
       <c r="A257" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B257" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" t="s">
         <v>63</v>
@@ -6672,10 +6674,10 @@
     </row>
     <row r="258" spans="1:8" hidden="1">
       <c r="A258" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B258" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C258" t="s">
         <v>53</v>
@@ -6692,10 +6694,10 @@
     </row>
     <row r="259" spans="1:8" hidden="1">
       <c r="A259" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B259" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -6707,15 +6709,15 @@
         <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="260" spans="1:8" hidden="1">
       <c r="A260" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B260" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -6727,15 +6729,15 @@
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="261" spans="1:8" hidden="1">
       <c r="A261" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B261" t="s">
         <v>203</v>
-      </c>
-      <c r="B261" t="s">
-        <v>205</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -6747,15 +6749,15 @@
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="262" spans="1:8" hidden="1">
       <c r="A262" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B262" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -6767,15 +6769,15 @@
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1">
       <c r="A263" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B263" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -6787,15 +6789,15 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264" spans="1:8" hidden="1">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B264" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -6807,15 +6809,15 @@
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="265" spans="1:8" hidden="1">
       <c r="A265" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B265" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -6827,15 +6829,15 @@
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1">
       <c r="A266" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B266" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -6847,15 +6849,15 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="267" spans="1:8" hidden="1">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B267" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C267" t="s">
         <v>21</v>
@@ -6872,10 +6874,10 @@
     </row>
     <row r="268" spans="1:8" hidden="1">
       <c r="A268" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B268" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C268" t="s">
         <v>53</v>
@@ -6892,10 +6894,10 @@
     </row>
     <row r="269" spans="1:8" hidden="1">
       <c r="A269" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B269" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C269" t="s">
         <v>53</v>
@@ -6912,7 +6914,7 @@
     </row>
     <row r="270" spans="1:8" hidden="1">
       <c r="A270" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6932,7 +6934,7 @@
     </row>
     <row r="271" spans="1:8" hidden="1">
       <c r="A271" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B271" t="s">
         <v>62</v>
@@ -6947,15 +6949,15 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="272" spans="1:8" hidden="1">
       <c r="A272" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B272" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C272" t="s">
         <v>63</v>
@@ -6972,10 +6974,10 @@
     </row>
     <row r="273" spans="1:8" hidden="1">
       <c r="A273" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B273" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C273" t="s">
         <v>53</v>
@@ -6992,10 +6994,10 @@
     </row>
     <row r="274" spans="1:8" hidden="1">
       <c r="A274" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B274" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -7007,15 +7009,15 @@
         <v>14</v>
       </c>
       <c r="H274" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="275" spans="1:8" hidden="1">
       <c r="A275" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B275" t="s">
         <v>215</v>
-      </c>
-      <c r="B275" t="s">
-        <v>217</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -7027,15 +7029,15 @@
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:8" hidden="1">
       <c r="A276" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B276" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -7047,15 +7049,15 @@
         <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1">
       <c r="A277" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B277" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -7067,12 +7069,12 @@
         <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:8" hidden="1">
       <c r="A278" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B278" t="s">
         <v>40</v>
@@ -7087,15 +7089,15 @@
         <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="279" spans="1:8" hidden="1">
       <c r="A279" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B279" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C279" t="s">
         <v>21</v>
@@ -7112,10 +7114,10 @@
     </row>
     <row r="280" spans="1:8" hidden="1">
       <c r="A280" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B280" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C280" t="s">
         <v>53</v>
@@ -7132,7 +7134,7 @@
     </row>
     <row r="281" spans="1:8" hidden="1">
       <c r="A281" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -7152,7 +7154,7 @@
     </row>
     <row r="282" spans="1:8" hidden="1">
       <c r="A282" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B282" t="s">
         <v>62</v>
@@ -7167,15 +7169,15 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1">
       <c r="A283" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B283" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C283" t="s">
         <v>63</v>
@@ -7192,10 +7194,10 @@
     </row>
     <row r="284" spans="1:8" hidden="1">
       <c r="A284" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B284" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C284" t="s">
         <v>53</v>
@@ -7212,10 +7214,10 @@
     </row>
     <row r="285" spans="1:8" hidden="1">
       <c r="A285" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B285" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
@@ -7227,12 +7229,12 @@
         <v>14</v>
       </c>
       <c r="H285" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="286" spans="1:8" hidden="1">
       <c r="A286" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B286" t="s">
         <v>75</v>
@@ -7247,15 +7249,15 @@
         <v>14</v>
       </c>
       <c r="H286" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="287" spans="1:8" hidden="1">
       <c r="A287" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B287" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C287" t="s">
         <v>21</v>
@@ -7272,10 +7274,10 @@
     </row>
     <row r="288" spans="1:8" hidden="1">
       <c r="A288" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B288" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C288" t="s">
         <v>53</v>
@@ -7292,7 +7294,7 @@
     </row>
     <row r="289" spans="1:8" hidden="1">
       <c r="A289" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -7312,7 +7314,7 @@
     </row>
     <row r="290" spans="1:8" hidden="1">
       <c r="A290" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B290" t="s">
         <v>62</v>
@@ -7327,15 +7329,15 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="291" spans="1:8" hidden="1">
       <c r="A291" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B291" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C291" t="s">
         <v>63</v>
@@ -7347,15 +7349,15 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="292" spans="1:8" hidden="1">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B292" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C292" t="s">
         <v>53</v>
@@ -7372,10 +7374,10 @@
     </row>
     <row r="293" spans="1:8" hidden="1">
       <c r="A293" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B293" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -7387,15 +7389,15 @@
         <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="294" spans="1:8" hidden="1">
       <c r="A294" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B294" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
@@ -7412,10 +7414,10 @@
     </row>
     <row r="295" spans="1:8" hidden="1">
       <c r="A295" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B295" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -7427,15 +7429,15 @@
         <v>14</v>
       </c>
       <c r="H295" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="296" spans="1:8" hidden="1">
       <c r="A296" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -7447,15 +7449,15 @@
         <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="297" spans="1:8" hidden="1">
       <c r="A297" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B297" t="s">
         <v>242</v>
-      </c>
-      <c r="B297" t="s">
-        <v>244</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -7467,15 +7469,15 @@
         <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="298" spans="1:8" hidden="1">
       <c r="A298" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B298" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C298" t="s">
         <v>13</v>
@@ -7487,15 +7489,15 @@
         <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="299" spans="1:8" hidden="1">
       <c r="A299" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B299" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C299" t="s">
         <v>13</v>
@@ -7507,15 +7509,15 @@
         <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="300" spans="1:8" hidden="1">
       <c r="A300" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B300" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
@@ -7527,12 +7529,12 @@
         <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1">
       <c r="A301" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B301" t="s">
         <v>40</v>
@@ -7547,15 +7549,15 @@
         <v>14</v>
       </c>
       <c r="H301" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="302" spans="1:8" hidden="1">
       <c r="A302" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B302" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C302" t="s">
         <v>21</v>
@@ -7572,10 +7574,10 @@
     </row>
     <row r="303" spans="1:8" hidden="1">
       <c r="A303" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B303" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C303" t="s">
         <v>53</v>
@@ -7592,7 +7594,7 @@
     </row>
     <row r="304" spans="1:8" hidden="1">
       <c r="A304" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -7612,7 +7614,7 @@
     </row>
     <row r="305" spans="1:8" hidden="1">
       <c r="A305" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B305" t="s">
         <v>62</v>
@@ -7627,15 +7629,15 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="306" spans="1:8" hidden="1">
       <c r="A306" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B306" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C306" t="s">
         <v>63</v>
@@ -7647,15 +7649,15 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="307" spans="1:8" hidden="1">
       <c r="A307" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B307" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C307" t="s">
         <v>53</v>
@@ -7672,10 +7674,10 @@
     </row>
     <row r="308" spans="1:8" hidden="1">
       <c r="A308" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B308" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C308" t="s">
         <v>13</v>
@@ -7687,15 +7689,15 @@
         <v>14</v>
       </c>
       <c r="H308" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:8" hidden="1">
       <c r="A309" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B309" t="s">
         <v>259</v>
-      </c>
-      <c r="B309" t="s">
-        <v>261</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
@@ -7707,15 +7709,15 @@
         <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="310" spans="1:8" hidden="1">
       <c r="A310" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B310" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -7727,15 +7729,15 @@
         <v>14</v>
       </c>
       <c r="H310" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1">
       <c r="A311" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B311" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C311" t="s">
         <v>21</v>
@@ -7747,15 +7749,15 @@
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="312" spans="1:8" hidden="1">
       <c r="A312" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B312" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C312" t="s">
         <v>53</v>
